--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813125.1092645499</v>
+        <v>808967.6232489806</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18881039.54694391</v>
+        <v>18881039.5469439</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7305203.371656117</v>
+        <v>7305203.371656111</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6616263.7833309</v>
+        <v>6616263.783330898</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C2" t="n">
-        <v>390.1527797502169</v>
+        <v>7.831319480487728</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.1850158813504</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.44710107338197</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -752,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>139.0920644118356</v>
       </c>
     </row>
     <row r="4">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>101.8416773654827</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>36.34992104302675</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -901,10 +901,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="D5" t="n">
-        <v>390.1527797502169</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>16.7127949433383</v>
+        <v>187.8379041503353</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>49.24122459057003</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>34.29917827541634</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1104,13 +1104,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>13.99263448916712</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>6.11896786784456</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.023344779862555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4192906078700389</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.34692935299816</v>
+      </c>
+      <c r="F8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.250610088357787</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.367347236375154</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1280,7 +1280,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>152.4597407006262</v>
       </c>
     </row>
     <row r="10">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>15.02990584219687</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.11593919665227</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>50.53666176840194</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.5670528414419</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.78959870691141</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.86853022954654</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3597813381506</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -1545,10 +1545,10 @@
         <v>164.8483766449582</v>
       </c>
       <c r="H13" t="n">
-        <v>141.625368939496</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>93.24421456364831</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>51.61854545266082</v>
       </c>
       <c r="S13" t="n">
-        <v>171.8144716711522</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>234.0362521438441</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.930374496496</v>
+        <v>76.64856443081563</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.972804985983739</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3312049570596</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>403.0146827044156</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.1438774287491</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>22.78959870691141</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>96.86853022954654</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>197.4373541082183</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9021811992226</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.625368939496</v>
       </c>
       <c r="I16" t="n">
-        <v>93.24421456364831</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.61854545266082</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>171.8144716711522</v>
@@ -1824,16 +1824,16 @@
         <v>279.930374496496</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>244.9651378283017</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>367.2832096751272</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>403.0146827044156</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>91.67110087888345</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3597813381506</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,10 +2013,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.8483766449582</v>
       </c>
       <c r="H19" t="n">
         <v>141.625368939496</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>234.0362521438441</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.930374496496</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>2.993309109604363</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.0578824542732</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>340.33120495706</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>403.0146827044156</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>289.1990722124345</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>96.86853022954654</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3597813381506</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>15.0179445823918</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8483766449582</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.625368939496</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.61854545266082</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>171.8144716711522</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.4137171000679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>102.5710549579928</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>291.1438774287491</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>22.78959870691141</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>183.3447007895493</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>11.21398169866914</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.8483766449582</v>
       </c>
       <c r="H25" t="n">
-        <v>141.625368939496</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>93.24421456364831</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>171.8144716711522</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>234.0362521438441</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.930374496496</v>
       </c>
       <c r="V25" t="n">
-        <v>253.0861642756929</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66.04704109204366</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>291.1438774287491</v>
       </c>
       <c r="I26" t="n">
         <v>22.78959870691141</v>
@@ -2614,13 +2614,13 @@
         <v>254.3597813381506</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>111.7603387650712</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.93100078686865</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>164.8483766449582</v>
       </c>
       <c r="H28" t="n">
-        <v>141.625368939496</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>93.24421456364831</v>
+        <v>11.21398169866915</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.61854545266082</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>171.8144716711522</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>22.98151833763715</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>22.78959870691141</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>42.61832894605825</v>
+        <v>96.86853022954654</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U29" t="n">
         <v>254.3597813381506</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>11.21398169866914</v>
       </c>
       <c r="G31" t="n">
         <v>164.8483766449582</v>
       </c>
       <c r="H31" t="n">
-        <v>141.625368939496</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>93.24421456364831</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.61854545266082</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>171.8144716711522</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>234.0362521438441</v>
       </c>
       <c r="U31" t="n">
-        <v>29.65314715187989</v>
+        <v>279.930374496496</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>215.6196682095543</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>403.0146827044156</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>291.1438774287491</v>
@@ -3094,10 +3094,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>221.997387061233</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5245446245034</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>11.21398169866914</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.8483766449582</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>51.61854545266082</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>171.8144716711522</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>366.992867206473</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>175.9678701594211</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>22.78959870691141</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>96.86853022954654</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3597813381506</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>99.00334854172097</v>
       </c>
       <c r="D37" t="n">
-        <v>23.70237421413195</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.8483766449582</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.625368939496</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>93.24421456364831</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>171.8144716711522</v>
       </c>
       <c r="T37" t="n">
         <v>234.0362521438441</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>284.9872923425046</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>291.1438774287491</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3597813381506</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>366.9928672064733</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,16 +3666,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.8483766449582</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>171.8144716711522</v>
       </c>
       <c r="T40" t="n">
-        <v>234.0362521438441</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>64.16435078478563</v>
+        <v>115.7543451926875</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>346.0308822170338</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>271.4378581171086</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>403.0146827044156</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>291.1438774287491</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>22.78959870691141</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>96.86853022954654</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3597813381506</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>16.88150659683359</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.8483766449582</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>141.625368939496</v>
       </c>
       <c r="I43" t="n">
-        <v>93.24421456364831</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>171.8144716711522</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>234.0362521438441</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.930374496496</v>
       </c>
       <c r="V43" t="n">
-        <v>6.6447157598858</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3988,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>22.78959870691141</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>37.07243538084833</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3597813381506</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>60.17316283655038</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>17.78817916394531</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.8483766449582</v>
       </c>
       <c r="H46" t="n">
-        <v>141.625368939496</v>
+        <v>10.3768745188046</v>
       </c>
       <c r="I46" t="n">
-        <v>93.24421456364831</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>279.930374496496</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767.9950595109821</v>
+        <v>157.8756341625153</v>
       </c>
       <c r="C2" t="n">
-        <v>373.9013425915711</v>
+        <v>149.965210444851</v>
       </c>
       <c r="D2" t="n">
-        <v>373.4778167250357</v>
+        <v>149.5416845783156</v>
       </c>
       <c r="E2" t="n">
-        <v>363.1780052823364</v>
+        <v>139.2418731356163</v>
       </c>
       <c r="F2" t="n">
-        <v>346.187997276428</v>
+        <v>122.251865129708</v>
       </c>
       <c r="G2" t="n">
-        <v>341.5001172096643</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I2" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="L2" t="n">
-        <v>417.4634743327321</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M2" t="n">
-        <v>803.7147262854468</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N2" t="n">
-        <v>803.7147262854468</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O2" t="n">
-        <v>812.642214563296</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P2" t="n">
         <v>1198.893466516011</v>
@@ -4360,22 +4360,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>1168.269552054478</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V2" t="n">
-        <v>1168.269552054478</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W2" t="n">
-        <v>1168.269552054478</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X2" t="n">
-        <v>1168.269552054478</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="Y2" t="n">
-        <v>774.1758351350675</v>
+        <v>551.9693510819263</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710.0430642665517</v>
+        <v>352.1607225492286</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>352.1607225492286</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>352.1607225492286</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>231.6679065415565</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="G3" t="n">
         <v>122.7080267240611</v>
@@ -4418,16 +4418,16 @@
         <v>224.0250799426506</v>
       </c>
       <c r="M3" t="n">
-        <v>610.2763318953653</v>
+        <v>438.2641504114549</v>
       </c>
       <c r="N3" t="n">
-        <v>788.1086150954382</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O3" t="n">
-        <v>1174.359867048153</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P3" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q3" t="n">
         <v>1560.611119000868</v>
@@ -4436,25 +4436,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1149.54878113212</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>936.3156128684487</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X3" t="n">
-        <v>759.9896310073416</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y3" t="n">
-        <v>759.9896310073416</v>
+        <v>352.1607225492286</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.0361046474898</v>
+        <v>970.9386174866106</v>
       </c>
       <c r="C4" t="n">
-        <v>400.0361046474898</v>
+        <v>799.8452450483271</v>
       </c>
       <c r="D4" t="n">
-        <v>400.0361046474898</v>
+        <v>640.3506003712371</v>
       </c>
       <c r="E4" t="n">
-        <v>400.0361046474898</v>
+        <v>479.4397852395565</v>
       </c>
       <c r="F4" t="n">
-        <v>400.0361046474898</v>
+        <v>314.8086593501478</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H4" t="n">
         <v>147.5582682756912</v>
@@ -4494,10 +4494,10 @@
         <v>199.8470995074659</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4512,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T4" t="n">
-        <v>1235.789661652969</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U4" t="n">
-        <v>952.9915141990934</v>
+        <v>1523.894027038214</v>
       </c>
       <c r="V4" t="n">
-        <v>679.1057691386154</v>
+        <v>1250.008281977736</v>
       </c>
       <c r="W4" t="n">
-        <v>400.0361046474898</v>
+        <v>970.9386174866106</v>
       </c>
       <c r="X4" t="n">
-        <v>400.0361046474898</v>
+        <v>970.9386174866106</v>
       </c>
       <c r="Y4" t="n">
-        <v>400.0361046474898</v>
+        <v>970.9386174866106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.3109180283154</v>
+        <v>637.1426099561463</v>
       </c>
       <c r="C5" t="n">
-        <v>550.2172011089044</v>
+        <v>243.0488930367353</v>
       </c>
       <c r="D5" t="n">
-        <v>156.1234841894934</v>
+        <v>242.6253671701999</v>
       </c>
       <c r="E5" t="n">
-        <v>139.2418731356163</v>
+        <v>52.89011045268948</v>
       </c>
       <c r="F5" t="n">
-        <v>122.251865129708</v>
+        <v>35.9001024467811</v>
       </c>
       <c r="G5" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H5" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I5" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>40.13971065786654</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L5" t="n">
-        <v>812.642214563296</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M5" t="n">
-        <v>812.642214563296</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N5" t="n">
-        <v>812.642214563296</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O5" t="n">
-        <v>812.642214563296</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P5" t="n">
         <v>1198.893466516011</v>
@@ -4594,25 +4594,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T5" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U5" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V5" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W5" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X5" t="n">
-        <v>1338.404634947726</v>
+        <v>1031.236326875557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1338.404634947726</v>
+        <v>1031.236326875557</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406.1859333005731</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C6" t="n">
-        <v>272.1908620495188</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D6" t="n">
-        <v>222.4522513519733</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E6" t="n">
-        <v>101.9594353443013</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F6" t="n">
-        <v>101.9594353443013</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G6" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H6" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>417.4634743327321</v>
+        <v>372.2978437800934</v>
       </c>
       <c r="L6" t="n">
-        <v>803.7147262854468</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M6" t="n">
-        <v>803.7147262854468</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.965978238161</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="O6" t="n">
-        <v>1560.611119000868</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P6" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q6" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S6" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T6" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U6" t="n">
-        <v>1095.928434440403</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="V6" t="n">
-        <v>882.216907433437</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W6" t="n">
-        <v>882.216907433437</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X6" t="n">
-        <v>705.8909255723297</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y6" t="n">
-        <v>546.4889659361597</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.4424839812759</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="C7" t="n">
-        <v>496.4424839812759</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="D7" t="n">
-        <v>496.4424839812759</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="E7" t="n">
-        <v>496.4424839812759</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="F7" t="n">
-        <v>331.8113580918672</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H7" t="n">
         <v>147.5582682756912</v>
@@ -4725,7 +4725,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K7" t="n">
         <v>199.8470995074661</v>
@@ -4752,25 +4752,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S7" t="n">
-        <v>1288.946632556178</v>
+        <v>1461.204426444785</v>
       </c>
       <c r="T7" t="n">
-        <v>1049.39789353288</v>
+        <v>1221.655687421487</v>
       </c>
       <c r="U7" t="n">
-        <v>1049.39789353288</v>
+        <v>938.8575399676115</v>
       </c>
       <c r="V7" t="n">
-        <v>775.5121484724016</v>
+        <v>664.9717949071335</v>
       </c>
       <c r="W7" t="n">
-        <v>496.4424839812759</v>
+        <v>385.9021304160078</v>
       </c>
       <c r="X7" t="n">
-        <v>496.4424839812759</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.4424839812759</v>
+        <v>147.5582682756912</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>551.9693510819263</v>
+        <v>939.8822923772519</v>
       </c>
       <c r="C8" t="n">
-        <v>543.6354014977265</v>
+        <v>933.7981057309261</v>
       </c>
       <c r="D8" t="n">
-        <v>149.5416845783156</v>
+        <v>933.3745798643906</v>
       </c>
       <c r="E8" t="n">
-        <v>139.2418731356163</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="F8" t="n">
-        <v>122.251865129708</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="G8" t="n">
         <v>117.5639850629442</v>
@@ -4804,25 +4804,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K8" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M8" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N8" t="n">
-        <v>1174.359867048153</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O8" t="n">
-        <v>1560.611119000868</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P8" t="n">
-        <v>1560.611119000868</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q8" t="n">
         <v>1560.611119000868</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>600.5876713711716</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="C9" t="n">
-        <v>466.5926001201173</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="D9" t="n">
-        <v>459.1508352348899</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="E9" t="n">
         <v>338.6580192272179</v>
@@ -4883,25 +4883,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>372.2978437800934</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M9" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N9" t="n">
-        <v>758.5490957328082</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O9" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
         <v>1531.051599638238</v>
@@ -4910,25 +4910,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T9" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U9" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.54878113212</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W9" t="n">
-        <v>936.3156128684487</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X9" t="n">
-        <v>759.9896310073416</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y9" t="n">
-        <v>600.5876713711716</v>
+        <v>338.6580192272179</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.6443365274001</v>
+        <v>1062.902995670987</v>
       </c>
       <c r="C10" t="n">
-        <v>213.6443365274001</v>
+        <v>891.8096232327039</v>
       </c>
       <c r="D10" t="n">
-        <v>213.6443365274001</v>
+        <v>732.3149785556138</v>
       </c>
       <c r="E10" t="n">
-        <v>198.4626134544739</v>
+        <v>571.4041634239334</v>
       </c>
       <c r="F10" t="n">
-        <v>198.4626134544739</v>
+        <v>406.7730375345246</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>239.522646460068</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>89.9151912655247</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4989,25 +4989,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V10" t="n">
-        <v>492.7140010185257</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="W10" t="n">
-        <v>213.6443365274001</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="X10" t="n">
-        <v>213.6443365274001</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.6443365274001</v>
+        <v>1250.602702065032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.79093389888965</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="C11" t="n">
-        <v>40.74380079949374</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="D11" t="n">
-        <v>40.74380079949374</v>
+        <v>1306.219763087826</v>
       </c>
       <c r="E11" t="n">
-        <v>40.74380079949374</v>
+        <v>891.8795476047225</v>
       </c>
       <c r="F11" t="n">
-        <v>40.74380079949374</v>
+        <v>470.84913555841</v>
       </c>
       <c r="G11" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="H11" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="I11" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J11" t="n">
-        <v>431.5807097414311</v>
+        <v>420.8677557853448</v>
       </c>
       <c r="K11" t="n">
-        <v>548.140765507904</v>
+        <v>537.4278115518177</v>
       </c>
       <c r="L11" t="n">
-        <v>707.6890351838538</v>
+        <v>696.9760812277675</v>
       </c>
       <c r="M11" t="n">
-        <v>898.043349023617</v>
+        <v>887.3303950675307</v>
       </c>
       <c r="N11" t="n">
-        <v>1093.346387064043</v>
+        <v>1082.633433107957</v>
       </c>
       <c r="O11" t="n">
-        <v>1272.364726938264</v>
+        <v>1261.651772982178</v>
       </c>
       <c r="P11" t="n">
-        <v>1527.462546057418</v>
+        <v>1400.466878981277</v>
       </c>
       <c r="Q11" t="n">
-        <v>2022.491420344604</v>
+        <v>1895.495753268463</v>
       </c>
       <c r="R11" t="n">
         <v>2037.190039974687</v>
       </c>
       <c r="S11" t="n">
-        <v>2037.190039974687</v>
+        <v>1939.343039742822</v>
       </c>
       <c r="T11" t="n">
-        <v>2037.190039974687</v>
+        <v>1724.327676400546</v>
       </c>
       <c r="U11" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="V11" t="n">
-        <v>1687.352485311168</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="W11" t="n">
-        <v>1303.592184446336</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="X11" t="n">
-        <v>902.948786615289</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="Y11" t="n">
-        <v>502.0121135633791</v>
+        <v>1467.398604341808</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.4583308603968</v>
+        <v>689.4583308603964</v>
       </c>
       <c r="C12" t="n">
-        <v>555.4632596093426</v>
+        <v>555.4632596093421</v>
       </c>
       <c r="D12" t="n">
-        <v>438.5661018287349</v>
+        <v>438.5661018287346</v>
       </c>
       <c r="E12" t="n">
-        <v>318.0732858210629</v>
+        <v>318.0732858210627</v>
       </c>
       <c r="F12" t="n">
-        <v>209.1134060035674</v>
+        <v>209.1134060035672</v>
       </c>
       <c r="G12" t="n">
-        <v>103.0022399276421</v>
+        <v>103.002239927642</v>
       </c>
       <c r="H12" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="I12" t="n">
-        <v>50.06787060656198</v>
+        <v>50.06787060656199</v>
       </c>
       <c r="J12" t="n">
-        <v>324.2693881727527</v>
+        <v>324.2693881727528</v>
       </c>
       <c r="K12" t="n">
-        <v>408.1080465570993</v>
+        <v>771.5993900695287</v>
       </c>
       <c r="L12" t="n">
-        <v>539.6000982557534</v>
+        <v>903.0914417681829</v>
       </c>
       <c r="M12" t="n">
-        <v>700.8846521184505</v>
+        <v>1064.37599563088</v>
       </c>
       <c r="N12" t="n">
-        <v>872.2734293956026</v>
+        <v>1235.764772908032</v>
       </c>
       <c r="O12" t="n">
-        <v>1376.477964289338</v>
+        <v>1383.553003545671</v>
       </c>
       <c r="P12" t="n">
         <v>1494.336196044415</v>
@@ -5159,13 +5159,13 @@
         <v>1378.722473256932</v>
       </c>
       <c r="W12" t="n">
-        <v>1165.489304993261</v>
+        <v>1165.48930499326</v>
       </c>
       <c r="X12" t="n">
-        <v>989.1633231321534</v>
+        <v>989.163323132153</v>
       </c>
       <c r="Y12" t="n">
-        <v>829.7613634959835</v>
+        <v>829.761363495983</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1100.62927423707</v>
+        <v>703.8926260214505</v>
       </c>
       <c r="C13" t="n">
-        <v>929.5359017987867</v>
+        <v>532.799253583167</v>
       </c>
       <c r="D13" t="n">
-        <v>770.0412571216966</v>
+        <v>532.799253583167</v>
       </c>
       <c r="E13" t="n">
-        <v>609.130441990016</v>
+        <v>371.8884384514865</v>
       </c>
       <c r="F13" t="n">
-        <v>444.4993161006073</v>
+        <v>207.2573125620778</v>
       </c>
       <c r="G13" t="n">
-        <v>277.9858043380233</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="H13" t="n">
-        <v>134.9298761163102</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="I13" t="n">
         <v>40.74380079949374</v>
@@ -5202,19 +5202,19 @@
         <v>105.8869799438389</v>
       </c>
       <c r="K13" t="n">
-        <v>138.0674139474247</v>
+        <v>344.3476075331388</v>
       </c>
       <c r="L13" t="n">
-        <v>505.3382494407819</v>
+        <v>711.6184430264959</v>
       </c>
       <c r="M13" t="n">
-        <v>907.8128547551208</v>
+        <v>1114.093048340835</v>
       </c>
       <c r="N13" t="n">
-        <v>1256.519729718157</v>
+        <v>1505.45048579473</v>
       </c>
       <c r="O13" t="n">
-        <v>1618.162205954888</v>
+        <v>1867.09296203146</v>
       </c>
       <c r="P13" t="n">
         <v>1911.186317678005</v>
@@ -5226,25 +5226,25 @@
         <v>1985.05009507301</v>
       </c>
       <c r="S13" t="n">
-        <v>1811.500123688007</v>
+        <v>1985.05009507301</v>
       </c>
       <c r="T13" t="n">
-        <v>1575.099868997256</v>
+        <v>1985.05009507301</v>
       </c>
       <c r="U13" t="n">
-        <v>1292.341914960391</v>
+        <v>1907.62730271865</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.341914960391</v>
+        <v>1633.741557658172</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.341914960391</v>
+        <v>1354.671893167047</v>
       </c>
       <c r="X13" t="n">
-        <v>1292.341914960391</v>
+        <v>1116.32803102673</v>
       </c>
       <c r="Y13" t="n">
-        <v>1288.328980631115</v>
+        <v>891.5923324154949</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.968860310198</v>
+        <v>1175.058450920644</v>
       </c>
       <c r="C14" t="n">
-        <v>1283.199966414178</v>
+        <v>764.9338602339142</v>
       </c>
       <c r="D14" t="n">
-        <v>1283.199966414178</v>
+        <v>764.9338602339142</v>
       </c>
       <c r="E14" t="n">
-        <v>868.8597509310746</v>
+        <v>764.9338602339142</v>
       </c>
       <c r="F14" t="n">
-        <v>447.8293388847621</v>
+        <v>764.9338602339142</v>
       </c>
       <c r="G14" t="n">
-        <v>40.74380079949374</v>
+        <v>357.8483221486458</v>
       </c>
       <c r="H14" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="I14" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J14" t="n">
-        <v>104.804882853702</v>
+        <v>431.5807097414311</v>
       </c>
       <c r="K14" t="n">
-        <v>609.0094177474371</v>
+        <v>548.140765507904</v>
       </c>
       <c r="L14" t="n">
-        <v>768.5576874233868</v>
+        <v>707.6890351838538</v>
       </c>
       <c r="M14" t="n">
-        <v>958.9120012631502</v>
+        <v>898.0433490236171</v>
       </c>
       <c r="N14" t="n">
-        <v>1154.215039303576</v>
+        <v>1093.346387064043</v>
       </c>
       <c r="O14" t="n">
-        <v>1333.233379177797</v>
+        <v>1272.364726938264</v>
       </c>
       <c r="P14" t="n">
-        <v>1527.462546057418</v>
+        <v>1411.179832937363</v>
       </c>
       <c r="Q14" t="n">
-        <v>2022.491420344604</v>
+        <v>1895.495753268463</v>
       </c>
       <c r="R14" t="n">
         <v>2037.190039974687</v>
       </c>
       <c r="S14" t="n">
-        <v>2037.190039974687</v>
+        <v>1939.343039742822</v>
       </c>
       <c r="T14" t="n">
-        <v>2037.190039974687</v>
+        <v>1724.327676400546</v>
       </c>
       <c r="U14" t="n">
-        <v>2037.190039974687</v>
+        <v>1724.327676400546</v>
       </c>
       <c r="V14" t="n">
-        <v>2037.190039974687</v>
+        <v>1374.490121737026</v>
       </c>
       <c r="W14" t="n">
-        <v>2037.190039974687</v>
+        <v>1374.490121737026</v>
       </c>
       <c r="X14" t="n">
-        <v>2037.190039974687</v>
+        <v>1374.490121737026</v>
       </c>
       <c r="Y14" t="n">
-        <v>2037.190039974687</v>
+        <v>1175.058450920644</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>50.06787060656199</v>
       </c>
       <c r="J15" t="n">
-        <v>80.60098419811949</v>
+        <v>324.2693881727528</v>
       </c>
       <c r="K15" t="n">
-        <v>164.4396425824661</v>
+        <v>828.4739230664878</v>
       </c>
       <c r="L15" t="n">
-        <v>668.6441774762011</v>
+        <v>959.9659747651421</v>
       </c>
       <c r="M15" t="n">
-        <v>829.9287313388982</v>
+        <v>1121.250528627839</v>
       </c>
       <c r="N15" t="n">
-        <v>1001.31750861605</v>
+        <v>1292.639305904991</v>
       </c>
       <c r="O15" t="n">
-        <v>1149.105739253689</v>
+        <v>1440.42753654263</v>
       </c>
       <c r="P15" t="n">
-        <v>1494.336196044414</v>
+        <v>1551.210729041374</v>
       </c>
       <c r="Q15" t="n">
         <v>1954.144708857247</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>739.3865054087873</v>
+        <v>354.8931014594903</v>
       </c>
       <c r="C16" t="n">
-        <v>739.3865054087873</v>
+        <v>183.7997290212068</v>
       </c>
       <c r="D16" t="n">
-        <v>579.8918607316973</v>
+        <v>183.7997290212068</v>
       </c>
       <c r="E16" t="n">
-        <v>579.8918607316973</v>
+        <v>183.7997290212068</v>
       </c>
       <c r="F16" t="n">
-        <v>415.2607348422886</v>
+        <v>183.7997290212068</v>
       </c>
       <c r="G16" t="n">
-        <v>277.9858043380233</v>
+        <v>183.7997290212068</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9298761163102</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="I16" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J16" t="n">
-        <v>40.88561631250251</v>
+        <v>105.8869799438389</v>
       </c>
       <c r="K16" t="n">
-        <v>221.4205737532484</v>
+        <v>344.3476075331388</v>
       </c>
       <c r="L16" t="n">
-        <v>588.6914092466056</v>
+        <v>711.6184430264959</v>
       </c>
       <c r="M16" t="n">
-        <v>991.1660145609446</v>
+        <v>1114.093048340835</v>
       </c>
       <c r="N16" t="n">
-        <v>1382.523452014839</v>
+        <v>1256.519729718157</v>
       </c>
       <c r="O16" t="n">
-        <v>1744.16592825157</v>
+        <v>1618.162205954888</v>
       </c>
       <c r="P16" t="n">
-        <v>2037.190039974687</v>
+        <v>1911.186317678005</v>
       </c>
       <c r="Q16" t="n">
         <v>2037.190039974687</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.05009507301</v>
+        <v>2037.190039974687</v>
       </c>
       <c r="S16" t="n">
-        <v>1811.500123688007</v>
+        <v>1863.640068589685</v>
       </c>
       <c r="T16" t="n">
-        <v>1575.099868997256</v>
+        <v>1627.239813898933</v>
       </c>
       <c r="U16" t="n">
-        <v>1292.341914960391</v>
+        <v>1344.481859862069</v>
       </c>
       <c r="V16" t="n">
-        <v>1018.456169899913</v>
+        <v>1097.042326702168</v>
       </c>
       <c r="W16" t="n">
-        <v>739.3865054087873</v>
+        <v>817.9726622110422</v>
       </c>
       <c r="X16" t="n">
-        <v>739.3865054087873</v>
+        <v>579.6288000707257</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.3865054087873</v>
+        <v>354.8931014594903</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1780.260967915949</v>
+        <v>1226.32546247915</v>
       </c>
       <c r="C17" t="n">
-        <v>1780.260967915949</v>
+        <v>816.2008717924203</v>
       </c>
       <c r="D17" t="n">
-        <v>1375.79703800901</v>
+        <v>411.7369418854809</v>
       </c>
       <c r="E17" t="n">
-        <v>961.4568225259063</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="F17" t="n">
-        <v>540.4264104795939</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="G17" t="n">
-        <v>133.3408723943255</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="H17" t="n">
         <v>40.74380079949374</v>
@@ -5524,13 +5524,13 @@
         <v>707.6890351838538</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.326062143672</v>
+        <v>898.0433490236171</v>
       </c>
       <c r="N17" t="n">
-        <v>1209.629100184098</v>
+        <v>1093.346387064043</v>
       </c>
       <c r="O17" t="n">
-        <v>1388.647440058319</v>
+        <v>1272.364726938264</v>
       </c>
       <c r="P17" t="n">
         <v>1527.462546057418</v>
@@ -5548,19 +5548,19 @@
         <v>2037.190039974687</v>
       </c>
       <c r="U17" t="n">
-        <v>1780.260967915949</v>
+        <v>2037.190039974687</v>
       </c>
       <c r="V17" t="n">
-        <v>1780.260967915949</v>
+        <v>2037.190039974687</v>
       </c>
       <c r="W17" t="n">
-        <v>1780.260967915949</v>
+        <v>2037.190039974687</v>
       </c>
       <c r="X17" t="n">
-        <v>1780.260967915949</v>
+        <v>1636.54664214364</v>
       </c>
       <c r="Y17" t="n">
-        <v>1780.260967915949</v>
+        <v>1636.54664214364</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4583308603965</v>
+        <v>689.4583308603964</v>
       </c>
       <c r="C18" t="n">
-        <v>555.4632596093422</v>
+        <v>555.4632596093421</v>
       </c>
       <c r="D18" t="n">
         <v>438.5661018287346</v>
@@ -5582,37 +5582,37 @@
         <v>318.0732858210627</v>
       </c>
       <c r="F18" t="n">
-        <v>209.1134060035673</v>
+        <v>209.1134060035672</v>
       </c>
       <c r="G18" t="n">
-        <v>103.0022399276421</v>
+        <v>103.002239927642</v>
       </c>
       <c r="H18" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="I18" t="n">
-        <v>40.74380079949374</v>
+        <v>50.06787060656199</v>
       </c>
       <c r="J18" t="n">
-        <v>71.27691439105125</v>
+        <v>324.2693881727528</v>
       </c>
       <c r="K18" t="n">
-        <v>155.1155727753979</v>
+        <v>771.5993900695287</v>
       </c>
       <c r="L18" t="n">
-        <v>659.320107669133</v>
+        <v>903.0914417681829</v>
       </c>
       <c r="M18" t="n">
-        <v>1113.929848378557</v>
+        <v>1064.37599563088</v>
       </c>
       <c r="N18" t="n">
-        <v>1285.318625655709</v>
+        <v>1235.764772908032</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.523160549444</v>
+        <v>1383.553003545671</v>
       </c>
       <c r="P18" t="n">
-        <v>1900.306353048188</v>
+        <v>1494.336196044415</v>
       </c>
       <c r="Q18" t="n">
         <v>1954.144708857247</v>
@@ -5636,10 +5636,10 @@
         <v>1165.48930499326</v>
       </c>
       <c r="X18" t="n">
-        <v>989.1633231321531</v>
+        <v>989.163323132153</v>
       </c>
       <c r="Y18" t="n">
-        <v>829.7613634959831</v>
+        <v>829.761363495983</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>598.3912641467938</v>
+        <v>1100.62927423707</v>
       </c>
       <c r="C19" t="n">
-        <v>598.3912641467938</v>
+        <v>929.5359017987867</v>
       </c>
       <c r="D19" t="n">
-        <v>438.8966194697038</v>
+        <v>770.0412571216966</v>
       </c>
       <c r="E19" t="n">
-        <v>277.9858043380233</v>
+        <v>609.130441990016</v>
       </c>
       <c r="F19" t="n">
-        <v>277.9858043380233</v>
+        <v>444.4993161006073</v>
       </c>
       <c r="G19" t="n">
         <v>277.9858043380233</v>
@@ -5673,25 +5673,25 @@
         <v>40.74380079949374</v>
       </c>
       <c r="J19" t="n">
-        <v>40.88561631250251</v>
+        <v>105.8869799438389</v>
       </c>
       <c r="K19" t="n">
-        <v>279.3462439018024</v>
+        <v>344.3476075331388</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6170793951596</v>
+        <v>711.6184430264959</v>
       </c>
       <c r="M19" t="n">
-        <v>1049.091684709499</v>
+        <v>1114.093048340835</v>
       </c>
       <c r="N19" t="n">
-        <v>1382.523452014839</v>
+        <v>1505.45048579473</v>
       </c>
       <c r="O19" t="n">
-        <v>1744.16592825157</v>
+        <v>1618.162205954888</v>
       </c>
       <c r="P19" t="n">
-        <v>2037.190039974687</v>
+        <v>1911.186317678005</v>
       </c>
       <c r="Q19" t="n">
         <v>2037.190039974687</v>
@@ -5703,22 +5703,22 @@
         <v>2037.190039974687</v>
       </c>
       <c r="T19" t="n">
-        <v>1800.789785283936</v>
+        <v>2037.190039974687</v>
       </c>
       <c r="U19" t="n">
-        <v>1518.031831247071</v>
+        <v>1754.432085937822</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.146086186593</v>
+        <v>1754.432085937822</v>
       </c>
       <c r="W19" t="n">
-        <v>965.0764216954672</v>
+        <v>1751.408541382666</v>
       </c>
       <c r="X19" t="n">
-        <v>726.7325595551506</v>
+        <v>1513.06467924235</v>
       </c>
       <c r="Y19" t="n">
-        <v>598.3912641467938</v>
+        <v>1288.328980631115</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1626.968860310198</v>
+        <v>332.8640757615489</v>
       </c>
       <c r="C20" t="n">
-        <v>1283.199966414178</v>
+        <v>332.8640757615489</v>
       </c>
       <c r="D20" t="n">
-        <v>1283.199966414178</v>
+        <v>332.8640757615489</v>
       </c>
       <c r="E20" t="n">
-        <v>868.8597509310746</v>
+        <v>332.8640757615489</v>
       </c>
       <c r="F20" t="n">
-        <v>447.8293388847621</v>
+        <v>332.8640757615489</v>
       </c>
       <c r="G20" t="n">
-        <v>40.74380079949375</v>
+        <v>332.8640757615489</v>
       </c>
       <c r="H20" t="n">
-        <v>40.74380079949375</v>
+        <v>40.74380079949378</v>
       </c>
       <c r="I20" t="n">
-        <v>40.74380079949375</v>
+        <v>40.74380079949378</v>
       </c>
       <c r="J20" t="n">
         <v>431.5807097414312</v>
@@ -5770,34 +5770,34 @@
         <v>1272.364726938264</v>
       </c>
       <c r="P20" t="n">
-        <v>1527.462546057418</v>
+        <v>1411.179832937363</v>
       </c>
       <c r="Q20" t="n">
-        <v>2022.491420344605</v>
+        <v>1906.20870722455</v>
       </c>
       <c r="R20" t="n">
-        <v>2037.190039974688</v>
+        <v>2037.190039974689</v>
       </c>
       <c r="S20" t="n">
-        <v>2037.190039974688</v>
+        <v>1939.343039742824</v>
       </c>
       <c r="T20" t="n">
-        <v>2037.190039974688</v>
+        <v>1724.327676400547</v>
       </c>
       <c r="U20" t="n">
-        <v>2037.190039974688</v>
+        <v>1467.398604341809</v>
       </c>
       <c r="V20" t="n">
-        <v>2037.190039974688</v>
+        <v>1117.56104967829</v>
       </c>
       <c r="W20" t="n">
-        <v>2037.190039974688</v>
+        <v>733.8007488134588</v>
       </c>
       <c r="X20" t="n">
-        <v>2037.190039974688</v>
+        <v>733.8007488134588</v>
       </c>
       <c r="Y20" t="n">
-        <v>2037.190039974688</v>
+        <v>332.8640757615489</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>689.4583308603965</v>
+        <v>689.4583308603967</v>
       </c>
       <c r="C21" t="n">
-        <v>555.4632596093422</v>
+        <v>555.4632596093423</v>
       </c>
       <c r="D21" t="n">
-        <v>438.5661018287346</v>
+        <v>438.5661018287348</v>
       </c>
       <c r="E21" t="n">
         <v>318.0732858210627</v>
@@ -5825,34 +5825,34 @@
         <v>103.0022399276421</v>
       </c>
       <c r="H21" t="n">
-        <v>40.74380079949375</v>
+        <v>40.74380079949378</v>
       </c>
       <c r="I21" t="n">
-        <v>40.74380079949375</v>
+        <v>50.06787060656202</v>
       </c>
       <c r="J21" t="n">
-        <v>71.27691439105126</v>
+        <v>324.2693881727528</v>
       </c>
       <c r="K21" t="n">
-        <v>575.4814492847864</v>
+        <v>771.5993900695282</v>
       </c>
       <c r="L21" t="n">
-        <v>706.9735009834407</v>
+        <v>903.0914417681824</v>
       </c>
       <c r="M21" t="n">
-        <v>868.2580548461378</v>
+        <v>1064.37599563088</v>
       </c>
       <c r="N21" t="n">
-        <v>1039.64683212329</v>
+        <v>1235.764772908032</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.435062760929</v>
+        <v>1383.55300354567</v>
       </c>
       <c r="P21" t="n">
-        <v>1577.381527161855</v>
+        <v>1494.336196044414</v>
       </c>
       <c r="Q21" t="n">
-        <v>2037.190039974687</v>
+        <v>1954.144708857247</v>
       </c>
       <c r="R21" t="n">
         <v>2037.190039974687</v>
@@ -5873,10 +5873,10 @@
         <v>1165.48930499326</v>
       </c>
       <c r="X21" t="n">
-        <v>989.1633231321531</v>
+        <v>989.1633231321533</v>
       </c>
       <c r="Y21" t="n">
-        <v>829.7613634959831</v>
+        <v>829.7613634959833</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.3318179148672</v>
+        <v>365.4828817761058</v>
       </c>
       <c r="C22" t="n">
-        <v>200.2384454765837</v>
+        <v>350.3132407837909</v>
       </c>
       <c r="D22" t="n">
-        <v>40.74380079949375</v>
+        <v>350.3132407837909</v>
       </c>
       <c r="E22" t="n">
-        <v>40.74380079949375</v>
+        <v>350.3132407837909</v>
       </c>
       <c r="F22" t="n">
-        <v>40.74380079949375</v>
+        <v>350.3132407837909</v>
       </c>
       <c r="G22" t="n">
-        <v>40.74380079949375</v>
+        <v>183.7997290212069</v>
       </c>
       <c r="H22" t="n">
-        <v>40.74380079949375</v>
+        <v>40.74380079949378</v>
       </c>
       <c r="I22" t="n">
-        <v>40.74380079949375</v>
+        <v>40.74380079949378</v>
       </c>
       <c r="J22" t="n">
-        <v>40.88561631250253</v>
+        <v>40.88561631250255</v>
       </c>
       <c r="K22" t="n">
-        <v>279.3462439018024</v>
+        <v>221.4205737532503</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6170793951596</v>
+        <v>588.6914092466075</v>
       </c>
       <c r="M22" t="n">
-        <v>991.1660145609451</v>
+        <v>991.1660145609465</v>
       </c>
       <c r="N22" t="n">
-        <v>1382.52345201484</v>
+        <v>1382.523452014841</v>
       </c>
       <c r="O22" t="n">
-        <v>1744.16592825157</v>
+        <v>1744.165928251572</v>
       </c>
       <c r="P22" t="n">
-        <v>2037.190039974688</v>
+        <v>2037.190039974689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2037.190039974688</v>
+        <v>2037.190039974689</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.05009507301</v>
+        <v>2037.190039974689</v>
       </c>
       <c r="S22" t="n">
-        <v>1811.500123688008</v>
+        <v>1863.640068589687</v>
       </c>
       <c r="T22" t="n">
-        <v>1575.099868997256</v>
+        <v>1627.239813898935</v>
       </c>
       <c r="U22" t="n">
-        <v>1292.341914960391</v>
+        <v>1344.48185986207</v>
       </c>
       <c r="V22" t="n">
-        <v>1018.456169899913</v>
+        <v>1070.596114801592</v>
       </c>
       <c r="W22" t="n">
-        <v>739.3865054087878</v>
+        <v>791.5264503104668</v>
       </c>
       <c r="X22" t="n">
-        <v>501.0426432684712</v>
+        <v>553.1825881701502</v>
       </c>
       <c r="Y22" t="n">
-        <v>371.3318179148672</v>
+        <v>553.1825881701502</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.783168434345</v>
+        <v>1692.425351355919</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.658577747616</v>
+        <v>1692.425351355919</v>
       </c>
       <c r="D23" t="n">
-        <v>881.1946478406762</v>
+        <v>1287.961421448979</v>
       </c>
       <c r="E23" t="n">
-        <v>466.854432357573</v>
+        <v>873.6212059658758</v>
       </c>
       <c r="F23" t="n">
-        <v>45.82402031126053</v>
+        <v>770.014079745681</v>
       </c>
       <c r="G23" t="n">
-        <v>45.82402031126053</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="H23" t="n">
-        <v>45.82402031126053</v>
+        <v>68.84381698490843</v>
       </c>
       <c r="I23" t="n">
         <v>45.82402031126053</v>
       </c>
       <c r="J23" t="n">
-        <v>109.8851023654688</v>
+        <v>436.6609292531979</v>
       </c>
       <c r="K23" t="n">
-        <v>676.9573537173178</v>
+        <v>553.2209850196709</v>
       </c>
       <c r="L23" t="n">
-        <v>1244.029605069167</v>
+        <v>712.7692546956207</v>
       </c>
       <c r="M23" t="n">
-        <v>1434.38391890893</v>
+        <v>903.123568535384</v>
       </c>
       <c r="N23" t="n">
-        <v>1629.686956949356</v>
+        <v>1098.42660657581</v>
       </c>
       <c r="O23" t="n">
-        <v>1808.705296823577</v>
+        <v>1277.444946450031</v>
       </c>
       <c r="P23" t="n">
-        <v>2064.772327720068</v>
+        <v>1654.477854569616</v>
       </c>
       <c r="Q23" t="n">
         <v>2149.506728856803</v>
@@ -6019,22 +6019,22 @@
         <v>2291.201015563026</v>
       </c>
       <c r="T23" t="n">
-        <v>2291.201015563026</v>
+        <v>2076.18565222075</v>
       </c>
       <c r="U23" t="n">
-        <v>2291.201015563026</v>
+        <v>2076.18565222075</v>
       </c>
       <c r="V23" t="n">
-        <v>2106.004348098835</v>
+        <v>2076.18565222075</v>
       </c>
       <c r="W23" t="n">
-        <v>2106.004348098835</v>
+        <v>1692.425351355919</v>
       </c>
       <c r="X23" t="n">
-        <v>2106.004348098835</v>
+        <v>1692.425351355919</v>
       </c>
       <c r="Y23" t="n">
-        <v>2106.004348098835</v>
+        <v>1692.425351355919</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>45.82402031126053</v>
       </c>
       <c r="I24" t="n">
-        <v>45.82402031126053</v>
+        <v>55.14809011832878</v>
       </c>
       <c r="J24" t="n">
-        <v>76.35713390281803</v>
+        <v>329.3496076845196</v>
       </c>
       <c r="K24" t="n">
-        <v>410.8308773351034</v>
+        <v>413.1882660688662</v>
       </c>
       <c r="L24" t="n">
-        <v>977.9031286869524</v>
+        <v>544.6803177675204</v>
       </c>
       <c r="M24" t="n">
-        <v>1139.187682549649</v>
+        <v>705.9648716302174</v>
       </c>
       <c r="N24" t="n">
-        <v>1310.576459826802</v>
+        <v>877.3536489073697</v>
       </c>
       <c r="O24" t="n">
-        <v>1877.648711178651</v>
+        <v>1025.141879545008</v>
       </c>
       <c r="P24" t="n">
-        <v>1988.431903677395</v>
+        <v>1499.416415556181</v>
       </c>
       <c r="Q24" t="n">
-        <v>2042.270259486454</v>
+        <v>1959.224928369014</v>
       </c>
       <c r="R24" t="n">
         <v>2042.270259486454</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1105.709493748837</v>
+        <v>394.758158753208</v>
       </c>
       <c r="C25" t="n">
-        <v>934.6161213105534</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="D25" t="n">
-        <v>775.1214766334633</v>
+        <v>212.3375320738446</v>
       </c>
       <c r="E25" t="n">
-        <v>614.2106615017829</v>
+        <v>212.3375320738446</v>
       </c>
       <c r="F25" t="n">
-        <v>449.5795356123741</v>
+        <v>212.3375320738446</v>
       </c>
       <c r="G25" t="n">
-        <v>283.0660238497901</v>
+        <v>45.82402031126053</v>
       </c>
       <c r="H25" t="n">
-        <v>140.010095628077</v>
+        <v>45.82402031126053</v>
       </c>
       <c r="I25" t="n">
         <v>45.82402031126053</v>
       </c>
       <c r="J25" t="n">
-        <v>110.9671994556057</v>
+        <v>110.9671994556056</v>
       </c>
       <c r="K25" t="n">
-        <v>349.4278270449057</v>
+        <v>349.4278270449056</v>
       </c>
       <c r="L25" t="n">
         <v>716.6986625382629</v>
@@ -6174,25 +6174,25 @@
         <v>2291.201015563026</v>
       </c>
       <c r="S25" t="n">
-        <v>2291.201015563026</v>
+        <v>2117.651044178024</v>
       </c>
       <c r="T25" t="n">
-        <v>2291.201015563026</v>
+        <v>1881.250789487273</v>
       </c>
       <c r="U25" t="n">
-        <v>2291.201015563026</v>
+        <v>1598.492835450408</v>
       </c>
       <c r="V25" t="n">
-        <v>2035.558425385559</v>
+        <v>1324.60709038993</v>
       </c>
       <c r="W25" t="n">
-        <v>1756.488760894433</v>
+        <v>1045.537425898804</v>
       </c>
       <c r="X25" t="n">
-        <v>1518.144898754117</v>
+        <v>807.1935637584877</v>
       </c>
       <c r="Y25" t="n">
-        <v>1293.409200142881</v>
+        <v>582.4578651472524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>904.2144445143242</v>
+        <v>1198.299169189828</v>
       </c>
       <c r="C26" t="n">
-        <v>904.2144445143242</v>
+        <v>1198.299169189828</v>
       </c>
       <c r="D26" t="n">
-        <v>904.2144445143242</v>
+        <v>1198.299169189828</v>
       </c>
       <c r="E26" t="n">
-        <v>489.8742290312209</v>
+        <v>783.9589537067251</v>
       </c>
       <c r="F26" t="n">
-        <v>68.84381698490843</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="G26" t="n">
-        <v>68.84381698490843</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="H26" t="n">
         <v>68.84381698490843</v>
@@ -6226,25 +6226,25 @@
         <v>45.82402031126053</v>
       </c>
       <c r="J26" t="n">
-        <v>109.8851023654688</v>
+        <v>436.6609292531979</v>
       </c>
       <c r="K26" t="n">
-        <v>226.4451581319418</v>
+        <v>1003.733180605047</v>
       </c>
       <c r="L26" t="n">
-        <v>793.5174094837907</v>
+        <v>1163.281450280997</v>
       </c>
       <c r="M26" t="n">
-        <v>1179.866630494899</v>
+        <v>1353.63576412076</v>
       </c>
       <c r="N26" t="n">
-        <v>1746.938881846748</v>
+        <v>1548.938802161186</v>
       </c>
       <c r="O26" t="n">
-        <v>1925.957221720969</v>
+        <v>1727.957142035407</v>
       </c>
       <c r="P26" t="n">
-        <v>2064.772327720068</v>
+        <v>1866.772248034506</v>
       </c>
       <c r="Q26" t="n">
         <v>2149.506728856803</v>
@@ -6262,16 +6262,16 @@
         <v>1721.409579930147</v>
       </c>
       <c r="V26" t="n">
-        <v>1371.572025266628</v>
+        <v>1608.520348854318</v>
       </c>
       <c r="W26" t="n">
-        <v>1371.572025266628</v>
+        <v>1608.520348854318</v>
       </c>
       <c r="X26" t="n">
-        <v>970.9286274355804</v>
+        <v>1608.520348854318</v>
       </c>
       <c r="Y26" t="n">
-        <v>970.9286274355804</v>
+        <v>1608.520348854318</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>45.82402031126053</v>
       </c>
       <c r="I27" t="n">
-        <v>45.82402031126053</v>
+        <v>55.14809011832878</v>
       </c>
       <c r="J27" t="n">
-        <v>76.35713390281803</v>
+        <v>329.3496076845196</v>
       </c>
       <c r="K27" t="n">
-        <v>160.1957922871646</v>
+        <v>859.7249406987351</v>
       </c>
       <c r="L27" t="n">
-        <v>291.6878439858189</v>
+        <v>991.2169923973893</v>
       </c>
       <c r="M27" t="n">
-        <v>858.7600953376678</v>
+        <v>1152.501546260086</v>
       </c>
       <c r="N27" t="n">
-        <v>1030.14887261482</v>
+        <v>1323.890323537239</v>
       </c>
       <c r="O27" t="n">
-        <v>1177.937103252459</v>
+        <v>1471.678554174877</v>
       </c>
       <c r="P27" t="n">
         <v>1582.461746673621</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>449.5795356123741</v>
+        <v>394.758158753208</v>
       </c>
       <c r="C28" t="n">
-        <v>449.5795356123741</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="D28" t="n">
-        <v>449.5795356123741</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="E28" t="n">
-        <v>449.5795356123741</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="F28" t="n">
-        <v>449.5795356123741</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="G28" t="n">
-        <v>283.0660238497901</v>
+        <v>57.15127455234048</v>
       </c>
       <c r="H28" t="n">
-        <v>140.010095628077</v>
+        <v>57.15127455234048</v>
       </c>
       <c r="I28" t="n">
         <v>45.82402031126053</v>
@@ -6387,16 +6387,16 @@
         <v>110.9671994556057</v>
       </c>
       <c r="K28" t="n">
-        <v>349.4278270449056</v>
+        <v>349.4278270449057</v>
       </c>
       <c r="L28" t="n">
-        <v>716.6986625382631</v>
+        <v>716.6986625382629</v>
       </c>
       <c r="M28" t="n">
         <v>1119.173267852602</v>
       </c>
       <c r="N28" t="n">
-        <v>1510.530705306496</v>
+        <v>1510.530705306497</v>
       </c>
       <c r="O28" t="n">
         <v>1872.173181543227</v>
@@ -6408,28 +6408,28 @@
         <v>2291.201015563026</v>
       </c>
       <c r="R28" t="n">
-        <v>2239.061070661349</v>
+        <v>2291.201015563026</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.511099276347</v>
+        <v>2117.651044178024</v>
       </c>
       <c r="T28" t="n">
-        <v>1829.110844585595</v>
+        <v>1881.250789487273</v>
       </c>
       <c r="U28" t="n">
-        <v>1546.35289054873</v>
+        <v>1598.492835450408</v>
       </c>
       <c r="V28" t="n">
-        <v>1272.467145488252</v>
+        <v>1324.60709038993</v>
       </c>
       <c r="W28" t="n">
-        <v>993.3974809971266</v>
+        <v>1045.537425898804</v>
       </c>
       <c r="X28" t="n">
-        <v>755.0536188568101</v>
+        <v>807.1935637584877</v>
       </c>
       <c r="Y28" t="n">
-        <v>530.3179202455748</v>
+        <v>582.4578651472524</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.82402031126053</v>
+        <v>927.4280994008263</v>
       </c>
       <c r="C29" t="n">
-        <v>45.82402031126053</v>
+        <v>927.4280994008263</v>
       </c>
       <c r="D29" t="n">
-        <v>45.82402031126053</v>
+        <v>927.4280994008263</v>
       </c>
       <c r="E29" t="n">
-        <v>45.82402031126053</v>
+        <v>513.087883917723</v>
       </c>
       <c r="F29" t="n">
-        <v>45.82402031126053</v>
+        <v>92.0574718714106</v>
       </c>
       <c r="G29" t="n">
-        <v>45.82402031126053</v>
+        <v>68.84381698490843</v>
       </c>
       <c r="H29" t="n">
-        <v>45.82402031126053</v>
+        <v>68.84381698490843</v>
       </c>
       <c r="I29" t="n">
         <v>45.82402031126053</v>
       </c>
       <c r="J29" t="n">
-        <v>109.8851023654688</v>
+        <v>436.6609292531979</v>
       </c>
       <c r="K29" t="n">
-        <v>676.9573537173178</v>
+        <v>553.2209850196709</v>
       </c>
       <c r="L29" t="n">
-        <v>1077.982723892248</v>
+        <v>712.7692546956207</v>
       </c>
       <c r="M29" t="n">
-        <v>1268.337037732011</v>
+        <v>903.123568535384</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.640075772437</v>
+        <v>1098.42660657581</v>
       </c>
       <c r="O29" t="n">
-        <v>1642.658415646658</v>
+        <v>1277.444946450031</v>
       </c>
       <c r="P29" t="n">
-        <v>1781.473521645757</v>
+        <v>1654.477854569616</v>
       </c>
       <c r="Q29" t="n">
-        <v>2276.502395932944</v>
+        <v>2149.506728856803</v>
       </c>
       <c r="R29" t="n">
         <v>2291.201015563026</v>
       </c>
       <c r="S29" t="n">
-        <v>2248.152198445796</v>
+        <v>2193.354015331161</v>
       </c>
       <c r="T29" t="n">
-        <v>2248.152198445796</v>
+        <v>1978.338651988885</v>
       </c>
       <c r="U29" t="n">
-        <v>1991.223126387058</v>
+        <v>1721.409579930147</v>
       </c>
       <c r="V29" t="n">
-        <v>1641.385571723539</v>
+        <v>1721.409579930147</v>
       </c>
       <c r="W29" t="n">
-        <v>1257.625270858707</v>
+        <v>1337.649279065316</v>
       </c>
       <c r="X29" t="n">
-        <v>856.98187302766</v>
+        <v>1337.649279065316</v>
       </c>
       <c r="Y29" t="n">
-        <v>456.04519997575</v>
+        <v>1337.649279065316</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>45.82402031126053</v>
       </c>
       <c r="I30" t="n">
-        <v>45.82402031126053</v>
+        <v>55.14809011832878</v>
       </c>
       <c r="J30" t="n">
-        <v>76.35713390281803</v>
+        <v>329.3496076845196</v>
       </c>
       <c r="K30" t="n">
-        <v>160.1957922871646</v>
+        <v>413.1882660688662</v>
       </c>
       <c r="L30" t="n">
-        <v>521.6140698338475</v>
+        <v>908.1716612799491</v>
       </c>
       <c r="M30" t="n">
-        <v>682.8986236965445</v>
+        <v>1069.456215142646</v>
       </c>
       <c r="N30" t="n">
-        <v>854.2874009736968</v>
+        <v>1240.844992419798</v>
       </c>
       <c r="O30" t="n">
-        <v>1421.359652325546</v>
+        <v>1388.633223057437</v>
       </c>
       <c r="P30" t="n">
-        <v>1988.431903677395</v>
+        <v>1499.416415556181</v>
       </c>
       <c r="Q30" t="n">
-        <v>2042.270259486454</v>
+        <v>1959.224928369014</v>
       </c>
       <c r="R30" t="n">
         <v>2042.270259486454</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1105.709493748837</v>
+        <v>394.758158753208</v>
       </c>
       <c r="C31" t="n">
-        <v>934.6161213105534</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="D31" t="n">
-        <v>775.1214766334633</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="E31" t="n">
-        <v>614.2106615017829</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="F31" t="n">
-        <v>449.5795356123741</v>
+        <v>212.3375320738446</v>
       </c>
       <c r="G31" t="n">
-        <v>283.0660238497901</v>
+        <v>45.82402031126053</v>
       </c>
       <c r="H31" t="n">
-        <v>140.010095628077</v>
+        <v>45.82402031126053</v>
       </c>
       <c r="I31" t="n">
         <v>45.82402031126053</v>
@@ -6624,7 +6624,7 @@
         <v>110.9671994556057</v>
       </c>
       <c r="K31" t="n">
-        <v>349.4278270449056</v>
+        <v>349.4278270449057</v>
       </c>
       <c r="L31" t="n">
         <v>716.6986625382629</v>
@@ -6633,7 +6633,7 @@
         <v>1119.173267852602</v>
       </c>
       <c r="N31" t="n">
-        <v>1510.530705306496</v>
+        <v>1510.530705306497</v>
       </c>
       <c r="O31" t="n">
         <v>1872.173181543227</v>
@@ -6645,28 +6645,28 @@
         <v>2291.201015563026</v>
       </c>
       <c r="R31" t="n">
-        <v>2239.061070661349</v>
+        <v>2291.201015563026</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.511099276347</v>
+        <v>2117.651044178024</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.511099276347</v>
+        <v>1881.250789487273</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.558425385559</v>
+        <v>1598.492835450408</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.558425385559</v>
+        <v>1324.60709038993</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.488760894433</v>
+        <v>1045.537425898804</v>
       </c>
       <c r="X31" t="n">
-        <v>1518.144898754117</v>
+        <v>807.1935637584877</v>
       </c>
       <c r="Y31" t="n">
-        <v>1293.409200142881</v>
+        <v>582.4578651472524</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>987.8117244017965</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="C32" t="n">
-        <v>987.8117244017965</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="D32" t="n">
-        <v>987.8117244017965</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="E32" t="n">
-        <v>987.8117244017965</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="F32" t="n">
-        <v>770.014079745681</v>
+        <v>362.9285416604126</v>
       </c>
       <c r="G32" t="n">
         <v>362.9285416604126</v>
@@ -6703,25 +6703,25 @@
         <v>436.6609292531979</v>
       </c>
       <c r="K32" t="n">
-        <v>553.2209850196709</v>
+        <v>1003.733180605047</v>
       </c>
       <c r="L32" t="n">
-        <v>712.7692546956207</v>
+        <v>1488.2771970427</v>
       </c>
       <c r="M32" t="n">
-        <v>903.123568535384</v>
+        <v>1678.631510882464</v>
       </c>
       <c r="N32" t="n">
-        <v>1336.644408696296</v>
+        <v>1873.93454892289</v>
       </c>
       <c r="O32" t="n">
-        <v>1515.662748570517</v>
+        <v>2052.952888797111</v>
       </c>
       <c r="P32" t="n">
-        <v>1654.477854569616</v>
+        <v>2191.76799479621</v>
       </c>
       <c r="Q32" t="n">
-        <v>2149.506728856803</v>
+        <v>2276.502395932944</v>
       </c>
       <c r="R32" t="n">
         <v>2291.201015563026</v>
@@ -6742,10 +6742,10 @@
         <v>987.8117244017965</v>
       </c>
       <c r="X32" t="n">
-        <v>987.8117244017965</v>
+        <v>587.1683265707491</v>
       </c>
       <c r="Y32" t="n">
-        <v>987.8117244017965</v>
+        <v>362.9285416604126</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>45.82402031126053</v>
       </c>
       <c r="I33" t="n">
-        <v>45.82402031126053</v>
+        <v>55.14809011832878</v>
       </c>
       <c r="J33" t="n">
-        <v>320.0255378774513</v>
+        <v>329.3496076845196</v>
       </c>
       <c r="K33" t="n">
-        <v>464.0414666240383</v>
+        <v>776.6796095812949</v>
       </c>
       <c r="L33" t="n">
-        <v>595.5335183226925</v>
+        <v>908.1716612799491</v>
       </c>
       <c r="M33" t="n">
-        <v>756.8180721853896</v>
+        <v>1069.456215142646</v>
       </c>
       <c r="N33" t="n">
-        <v>1323.890323537239</v>
+        <v>1240.844992419798</v>
       </c>
       <c r="O33" t="n">
-        <v>1471.678554174877</v>
+        <v>1388.633223057437</v>
       </c>
       <c r="P33" t="n">
-        <v>1582.461746673621</v>
+        <v>1499.416415556181</v>
       </c>
       <c r="Q33" t="n">
-        <v>2042.270259486454</v>
+        <v>1959.224928369014</v>
       </c>
       <c r="R33" t="n">
         <v>2042.270259486454</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>342.6182138515304</v>
+        <v>394.758158753208</v>
       </c>
       <c r="C34" t="n">
-        <v>206.7348354429411</v>
+        <v>223.6647863149245</v>
       </c>
       <c r="D34" t="n">
-        <v>206.7348354429411</v>
+        <v>212.3375320738446</v>
       </c>
       <c r="E34" t="n">
-        <v>45.8240203112606</v>
+        <v>212.3375320738446</v>
       </c>
       <c r="F34" t="n">
-        <v>45.8240203112606</v>
+        <v>212.3375320738446</v>
       </c>
       <c r="G34" t="n">
-        <v>45.8240203112606</v>
+        <v>45.82402031126053</v>
       </c>
       <c r="H34" t="n">
-        <v>45.8240203112606</v>
+        <v>45.82402031126053</v>
       </c>
       <c r="I34" t="n">
-        <v>45.8240203112606</v>
+        <v>45.82402031126053</v>
       </c>
       <c r="J34" t="n">
-        <v>110.9671994556058</v>
+        <v>110.9671994556057</v>
       </c>
       <c r="K34" t="n">
-        <v>349.4278270449057</v>
+        <v>349.4278270449056</v>
       </c>
       <c r="L34" t="n">
         <v>716.6986625382629</v>
@@ -6870,7 +6870,7 @@
         <v>1119.173267852602</v>
       </c>
       <c r="N34" t="n">
-        <v>1510.530705306496</v>
+        <v>1510.530705306497</v>
       </c>
       <c r="O34" t="n">
         <v>1872.173181543227</v>
@@ -6882,28 +6882,28 @@
         <v>2291.201015563026</v>
       </c>
       <c r="R34" t="n">
-        <v>2239.061070661349</v>
+        <v>2291.201015563026</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.511099276347</v>
+        <v>2117.651044178024</v>
       </c>
       <c r="T34" t="n">
-        <v>1829.110844585595</v>
+        <v>1881.250789487273</v>
       </c>
       <c r="U34" t="n">
-        <v>1546.35289054873</v>
+        <v>1598.492835450408</v>
       </c>
       <c r="V34" t="n">
-        <v>1272.467145488252</v>
+        <v>1324.60709038993</v>
       </c>
       <c r="W34" t="n">
-        <v>993.3974809971266</v>
+        <v>1045.537425898804</v>
       </c>
       <c r="X34" t="n">
-        <v>755.0536188568101</v>
+        <v>807.1935637584877</v>
       </c>
       <c r="Y34" t="n">
-        <v>530.3179202455748</v>
+        <v>582.4578651472524</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1226.032187258287</v>
+        <v>1467.398604341807</v>
       </c>
       <c r="C35" t="n">
-        <v>815.9075965715575</v>
+        <v>1467.398604341807</v>
       </c>
       <c r="D35" t="n">
-        <v>411.443666664618</v>
+        <v>1062.934674434868</v>
       </c>
       <c r="E35" t="n">
-        <v>411.443666664618</v>
+        <v>648.5944589517646</v>
       </c>
       <c r="F35" t="n">
-        <v>411.443666664618</v>
+        <v>648.5944589517646</v>
       </c>
       <c r="G35" t="n">
-        <v>40.74380079949374</v>
+        <v>241.5089208664963</v>
       </c>
       <c r="H35" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="I35" t="n">
         <v>40.74380079949374</v>
@@ -6943,46 +6943,46 @@
         <v>221.3649386201749</v>
       </c>
       <c r="L35" t="n">
-        <v>725.56947351391</v>
+        <v>380.9132082961248</v>
       </c>
       <c r="M35" t="n">
-        <v>915.9237873536733</v>
+        <v>571.267522135888</v>
       </c>
       <c r="N35" t="n">
-        <v>1111.226825394099</v>
+        <v>766.5705601763141</v>
       </c>
       <c r="O35" t="n">
-        <v>1290.24516526832</v>
+        <v>945.5889000505349</v>
       </c>
       <c r="P35" t="n">
-        <v>1527.462546057418</v>
+        <v>1400.466878981277</v>
       </c>
       <c r="Q35" t="n">
-        <v>2022.491420344604</v>
+        <v>1895.495753268463</v>
       </c>
       <c r="R35" t="n">
         <v>2037.190039974687</v>
       </c>
       <c r="S35" t="n">
-        <v>2037.190039974687</v>
+        <v>1939.343039742822</v>
       </c>
       <c r="T35" t="n">
-        <v>2037.190039974687</v>
+        <v>1724.327676400545</v>
       </c>
       <c r="U35" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341807</v>
       </c>
       <c r="V35" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341807</v>
       </c>
       <c r="W35" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341807</v>
       </c>
       <c r="X35" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341807</v>
       </c>
       <c r="Y35" t="n">
-        <v>1636.253366922777</v>
+        <v>1467.398604341807</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>40.74380079949374</v>
       </c>
       <c r="I36" t="n">
-        <v>40.74380079949374</v>
+        <v>50.06787060656199</v>
       </c>
       <c r="J36" t="n">
-        <v>314.9453183656845</v>
+        <v>324.2693881727528</v>
       </c>
       <c r="K36" t="n">
-        <v>398.7839767500311</v>
+        <v>415.1830858134319</v>
       </c>
       <c r="L36" t="n">
-        <v>530.2760284486853</v>
+        <v>546.6751375120862</v>
       </c>
       <c r="M36" t="n">
-        <v>781.1140907619742</v>
+        <v>707.9596913747832</v>
       </c>
       <c r="N36" t="n">
-        <v>1285.318625655709</v>
+        <v>879.3484686519355</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.523160549444</v>
+        <v>1383.55300354567</v>
       </c>
       <c r="P36" t="n">
-        <v>1900.306353048188</v>
+        <v>1494.336196044414</v>
       </c>
       <c r="Q36" t="n">
         <v>1954.144708857247</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>965.0764216954669</v>
+        <v>140.7471831648685</v>
       </c>
       <c r="C37" t="n">
-        <v>793.9830492571834</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="D37" t="n">
-        <v>770.0412571216966</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="E37" t="n">
-        <v>609.130441990016</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="F37" t="n">
-        <v>444.4993161006073</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="G37" t="n">
-        <v>277.9858043380233</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="H37" t="n">
-        <v>134.9298761163102</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="I37" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J37" t="n">
-        <v>40.88561631250251</v>
+        <v>105.8869799438389</v>
       </c>
       <c r="K37" t="n">
-        <v>221.4205737532482</v>
+        <v>344.3476075331388</v>
       </c>
       <c r="L37" t="n">
-        <v>588.6914092466054</v>
+        <v>711.6184430264959</v>
       </c>
       <c r="M37" t="n">
-        <v>991.1660145609444</v>
+        <v>865.1622922642623</v>
       </c>
       <c r="N37" t="n">
-        <v>1382.523452014839</v>
+        <v>1256.519729718157</v>
       </c>
       <c r="O37" t="n">
-        <v>1744.16592825157</v>
+        <v>1618.162205954888</v>
       </c>
       <c r="P37" t="n">
-        <v>2037.190039974687</v>
+        <v>1911.186317678005</v>
       </c>
       <c r="Q37" t="n">
         <v>2037.190039974687</v>
@@ -7122,25 +7122,25 @@
         <v>2037.190039974687</v>
       </c>
       <c r="S37" t="n">
-        <v>2037.190039974687</v>
+        <v>1863.640068589685</v>
       </c>
       <c r="T37" t="n">
-        <v>1800.789785283935</v>
+        <v>1627.239813898933</v>
       </c>
       <c r="U37" t="n">
-        <v>1518.031831247071</v>
+        <v>1344.481859862068</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.146086186593</v>
+        <v>1070.59611480159</v>
       </c>
       <c r="W37" t="n">
-        <v>965.0764216954669</v>
+        <v>791.5264503104647</v>
       </c>
       <c r="X37" t="n">
-        <v>965.0764216954669</v>
+        <v>553.1825881701482</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.0764216954669</v>
+        <v>328.4468895589129</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>855.3323213931631</v>
+        <v>1029.780015421382</v>
       </c>
       <c r="C38" t="n">
-        <v>445.2077307064332</v>
+        <v>741.9140635602663</v>
       </c>
       <c r="D38" t="n">
-        <v>40.74380079949374</v>
+        <v>741.9140635602663</v>
       </c>
       <c r="E38" t="n">
-        <v>40.74380079949374</v>
+        <v>741.9140635602663</v>
       </c>
       <c r="F38" t="n">
-        <v>40.74380079949374</v>
+        <v>741.9140635602663</v>
       </c>
       <c r="G38" t="n">
-        <v>40.74380079949374</v>
+        <v>334.8285254749979</v>
       </c>
       <c r="H38" t="n">
         <v>40.74380079949374</v>
@@ -7174,28 +7174,28 @@
         <v>40.74380079949374</v>
       </c>
       <c r="J38" t="n">
-        <v>104.804882853702</v>
+        <v>431.5807097414311</v>
       </c>
       <c r="K38" t="n">
-        <v>221.3649386201749</v>
+        <v>548.140765507904</v>
       </c>
       <c r="L38" t="n">
-        <v>725.56947351391</v>
+        <v>707.6890351838538</v>
       </c>
       <c r="M38" t="n">
-        <v>1229.774008407645</v>
+        <v>898.0433490236171</v>
       </c>
       <c r="N38" t="n">
-        <v>1619.92357333455</v>
+        <v>1093.346387064043</v>
       </c>
       <c r="O38" t="n">
-        <v>1798.941913208771</v>
+        <v>1597.550921957778</v>
       </c>
       <c r="P38" t="n">
-        <v>1937.75701920787</v>
+        <v>1810.761352131729</v>
       </c>
       <c r="Q38" t="n">
-        <v>2022.491420344604</v>
+        <v>1895.495753268463</v>
       </c>
       <c r="R38" t="n">
         <v>2037.190039974687</v>
@@ -7207,19 +7207,19 @@
         <v>2037.190039974687</v>
       </c>
       <c r="U38" t="n">
-        <v>2037.190039974687</v>
+        <v>1780.260967915949</v>
       </c>
       <c r="V38" t="n">
-        <v>2037.190039974687</v>
+        <v>1430.42341325243</v>
       </c>
       <c r="W38" t="n">
-        <v>2037.190039974687</v>
+        <v>1430.42341325243</v>
       </c>
       <c r="X38" t="n">
-        <v>1666.490174109562</v>
+        <v>1029.780015421382</v>
       </c>
       <c r="Y38" t="n">
-        <v>1265.553501057653</v>
+        <v>1029.780015421382</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>689.4583308603964</v>
+        <v>689.4583308603968</v>
       </c>
       <c r="C39" t="n">
-        <v>555.463259609342</v>
+        <v>555.4632596093426</v>
       </c>
       <c r="D39" t="n">
-        <v>438.5661018287344</v>
+        <v>438.5661018287349</v>
       </c>
       <c r="E39" t="n">
-        <v>318.0732858210624</v>
+        <v>318.0732858210629</v>
       </c>
       <c r="F39" t="n">
-        <v>209.113406003567</v>
+        <v>209.1134060035674</v>
       </c>
       <c r="G39" t="n">
-        <v>103.0022399276418</v>
+        <v>103.0022399276422</v>
       </c>
       <c r="H39" t="n">
-        <v>40.74380079949348</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="I39" t="n">
-        <v>40.74380079949374</v>
+        <v>50.06787060656199</v>
       </c>
       <c r="J39" t="n">
-        <v>71.27691439105125</v>
+        <v>324.2693881727528</v>
       </c>
       <c r="K39" t="n">
-        <v>411.4357214832302</v>
+        <v>771.5993900695282</v>
       </c>
       <c r="L39" t="n">
-        <v>915.6402563769652</v>
+        <v>903.0914417681824</v>
       </c>
       <c r="M39" t="n">
-        <v>1076.924810239662</v>
+        <v>1064.37599563088</v>
       </c>
       <c r="N39" t="n">
-        <v>1248.313587516815</v>
+        <v>1235.764772908032</v>
       </c>
       <c r="O39" t="n">
-        <v>1396.101818154453</v>
+        <v>1383.55300354567</v>
       </c>
       <c r="P39" t="n">
-        <v>1900.306353048188</v>
+        <v>1494.336196044414</v>
       </c>
       <c r="Q39" t="n">
         <v>1954.144708857247</v>
@@ -7292,13 +7292,13 @@
         <v>1378.722473256932</v>
       </c>
       <c r="W39" t="n">
-        <v>1165.48930499326</v>
+        <v>1165.489304993261</v>
       </c>
       <c r="X39" t="n">
-        <v>989.163323132153</v>
+        <v>989.1633231321534</v>
       </c>
       <c r="Y39" t="n">
-        <v>829.761363495983</v>
+        <v>829.7613634959835</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.2426330465478</v>
+        <v>542.98181088977</v>
       </c>
       <c r="C40" t="n">
-        <v>361.1492606082642</v>
+        <v>371.8884384514865</v>
       </c>
       <c r="D40" t="n">
-        <v>201.6546159311742</v>
+        <v>371.8884384514865</v>
       </c>
       <c r="E40" t="n">
-        <v>40.74380079949374</v>
+        <v>371.8884384514865</v>
       </c>
       <c r="F40" t="n">
-        <v>40.74380079949374</v>
+        <v>207.2573125620778</v>
       </c>
       <c r="G40" t="n">
         <v>40.74380079949374</v>
@@ -7332,25 +7332,25 @@
         <v>40.74380079949374</v>
       </c>
       <c r="J40" t="n">
-        <v>40.88561631250251</v>
+        <v>105.8869799438389</v>
       </c>
       <c r="K40" t="n">
-        <v>221.4205737532482</v>
+        <v>344.3476075331388</v>
       </c>
       <c r="L40" t="n">
-        <v>588.6914092466054</v>
+        <v>711.6184430264959</v>
       </c>
       <c r="M40" t="n">
-        <v>991.1660145609444</v>
+        <v>1114.093048340835</v>
       </c>
       <c r="N40" t="n">
-        <v>1382.523452014839</v>
+        <v>1505.45048579473</v>
       </c>
       <c r="O40" t="n">
-        <v>1744.16592825157</v>
+        <v>1867.09296203146</v>
       </c>
       <c r="P40" t="n">
-        <v>2037.190039974687</v>
+        <v>1911.186317678005</v>
       </c>
       <c r="Q40" t="n">
         <v>2037.190039974687</v>
@@ -7359,25 +7359,25 @@
         <v>2037.190039974687</v>
       </c>
       <c r="S40" t="n">
-        <v>2037.190039974687</v>
+        <v>1863.640068589685</v>
       </c>
       <c r="T40" t="n">
-        <v>1800.789785283935</v>
+        <v>1863.640068589685</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.977309743748</v>
+        <v>1746.71648758697</v>
       </c>
       <c r="V40" t="n">
-        <v>1462.09156468327</v>
+        <v>1472.830742526492</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.021900192144</v>
+        <v>1193.761078035366</v>
       </c>
       <c r="X40" t="n">
-        <v>944.6780380518275</v>
+        <v>955.4172158950497</v>
       </c>
       <c r="Y40" t="n">
-        <v>719.9423394405921</v>
+        <v>730.6815172838144</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="C41" t="n">
-        <v>1687.663896321117</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="D41" t="n">
-        <v>1283.199966414178</v>
+        <v>1193.218949678062</v>
       </c>
       <c r="E41" t="n">
-        <v>868.8597509310746</v>
+        <v>778.8787341949583</v>
       </c>
       <c r="F41" t="n">
-        <v>447.8293388847621</v>
+        <v>357.8483221486458</v>
       </c>
       <c r="G41" t="n">
-        <v>40.74380079949374</v>
+        <v>357.8483221486458</v>
       </c>
       <c r="H41" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="I41" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J41" t="n">
-        <v>420.8677557853446</v>
+        <v>431.5807097414311</v>
       </c>
       <c r="K41" t="n">
-        <v>537.4278115518175</v>
+        <v>935.7852446351662</v>
       </c>
       <c r="L41" t="n">
-        <v>696.9760812277673</v>
+        <v>1107.27055437822</v>
       </c>
       <c r="M41" t="n">
-        <v>887.3303950675305</v>
+        <v>1297.624868217983</v>
       </c>
       <c r="N41" t="n">
-        <v>1082.633433107957</v>
+        <v>1492.927906258409</v>
       </c>
       <c r="O41" t="n">
-        <v>1261.651772982177</v>
+        <v>1671.94624613263</v>
       </c>
       <c r="P41" t="n">
-        <v>1400.466878981277</v>
+        <v>1810.761352131729</v>
       </c>
       <c r="Q41" t="n">
         <v>1895.495753268463</v>
@@ -7438,25 +7438,25 @@
         <v>2037.190039974687</v>
       </c>
       <c r="S41" t="n">
-        <v>2037.190039974687</v>
+        <v>1939.343039742822</v>
       </c>
       <c r="T41" t="n">
-        <v>2037.190039974687</v>
+        <v>1724.327676400546</v>
       </c>
       <c r="U41" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="V41" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="W41" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="X41" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2037.190039974687</v>
+        <v>1467.398604341808</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689.4583308603964</v>
+        <v>689.4583308603965</v>
       </c>
       <c r="C42" t="n">
-        <v>555.4632596093421</v>
+        <v>555.4632596093422</v>
       </c>
       <c r="D42" t="n">
         <v>438.5661018287346</v>
@@ -7478,7 +7478,7 @@
         <v>318.0732858210627</v>
       </c>
       <c r="F42" t="n">
-        <v>209.1134060035672</v>
+        <v>209.1134060035673</v>
       </c>
       <c r="G42" t="n">
         <v>103.0022399276421</v>
@@ -7496,19 +7496,19 @@
         <v>408.1080465570994</v>
       </c>
       <c r="L42" t="n">
-        <v>912.3125814508344</v>
+        <v>539.6000982557536</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.929848378557</v>
+        <v>731.5602380142967</v>
       </c>
       <c r="N42" t="n">
-        <v>1285.318625655709</v>
+        <v>1235.764772908032</v>
       </c>
       <c r="O42" t="n">
-        <v>1789.523160549444</v>
+        <v>1383.55300354567</v>
       </c>
       <c r="P42" t="n">
-        <v>1900.306353048188</v>
+        <v>1494.336196044414</v>
       </c>
       <c r="Q42" t="n">
         <v>1954.144708857247</v>
@@ -7532,10 +7532,10 @@
         <v>1165.48930499326</v>
       </c>
       <c r="X42" t="n">
-        <v>989.163323132153</v>
+        <v>989.1633231321531</v>
       </c>
       <c r="Y42" t="n">
-        <v>829.761363495983</v>
+        <v>829.7613634959831</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1100.62927423707</v>
+        <v>365.482881776104</v>
       </c>
       <c r="C43" t="n">
-        <v>929.5359017987867</v>
+        <v>365.482881776104</v>
       </c>
       <c r="D43" t="n">
-        <v>770.0412571216966</v>
+        <v>365.482881776104</v>
       </c>
       <c r="E43" t="n">
-        <v>609.130441990016</v>
+        <v>348.4308549106156</v>
       </c>
       <c r="F43" t="n">
-        <v>444.4993161006073</v>
+        <v>183.7997290212068</v>
       </c>
       <c r="G43" t="n">
-        <v>277.9858043380233</v>
+        <v>183.7997290212068</v>
       </c>
       <c r="H43" t="n">
-        <v>134.9298761163102</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="I43" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J43" t="n">
-        <v>40.88561631250251</v>
+        <v>105.8869799438389</v>
       </c>
       <c r="K43" t="n">
-        <v>279.3462439018024</v>
+        <v>221.4205737532484</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6170793951596</v>
+        <v>588.6914092466056</v>
       </c>
       <c r="M43" t="n">
-        <v>1049.091684709499</v>
+        <v>991.1660145609446</v>
       </c>
       <c r="N43" t="n">
-        <v>1440.449122163393</v>
+        <v>1382.523452014839</v>
       </c>
       <c r="O43" t="n">
-        <v>1802.091598400124</v>
+        <v>1744.16592825157</v>
       </c>
       <c r="P43" t="n">
         <v>2037.190039974687</v>
@@ -7596,25 +7596,25 @@
         <v>2037.190039974687</v>
       </c>
       <c r="S43" t="n">
-        <v>2037.190039974687</v>
+        <v>1863.640068589685</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.190039974687</v>
+        <v>1627.239813898933</v>
       </c>
       <c r="U43" t="n">
-        <v>2037.190039974687</v>
+        <v>1344.481859862069</v>
       </c>
       <c r="V43" t="n">
-        <v>2030.478205873792</v>
+        <v>1070.596114801591</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.408541382666</v>
+        <v>791.526450310465</v>
       </c>
       <c r="X43" t="n">
-        <v>1513.06467924235</v>
+        <v>553.1825881701484</v>
       </c>
       <c r="Y43" t="n">
-        <v>1288.328980631115</v>
+        <v>553.1825881701484</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>865.2086069693269</v>
+        <v>1309.258815689287</v>
       </c>
       <c r="C44" t="n">
-        <v>455.084016282597</v>
+        <v>899.1342250025574</v>
       </c>
       <c r="D44" t="n">
-        <v>455.084016282597</v>
+        <v>899.1342250025574</v>
       </c>
       <c r="E44" t="n">
-        <v>40.74380079949374</v>
+        <v>484.7940095194541</v>
       </c>
       <c r="F44" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="G44" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="H44" t="n">
-        <v>40.74380079949374</v>
+        <v>63.76359747314163</v>
       </c>
       <c r="I44" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J44" t="n">
-        <v>104.804882853702</v>
+        <v>431.5807097414311</v>
       </c>
       <c r="K44" t="n">
-        <v>609.0094177474371</v>
+        <v>548.140765507904</v>
       </c>
       <c r="L44" t="n">
-        <v>1113.213952641172</v>
+        <v>707.6890351838538</v>
       </c>
       <c r="M44" t="n">
-        <v>1424.620535294124</v>
+        <v>898.0433490236171</v>
       </c>
       <c r="N44" t="n">
-        <v>1619.92357333455</v>
+        <v>1093.346387064043</v>
       </c>
       <c r="O44" t="n">
-        <v>1798.941913208771</v>
+        <v>1272.364726938264</v>
       </c>
       <c r="P44" t="n">
-        <v>1937.75701920787</v>
+        <v>1411.179832937363</v>
       </c>
       <c r="Q44" t="n">
-        <v>2022.491420344604</v>
+        <v>1895.495753268463</v>
       </c>
       <c r="R44" t="n">
         <v>2037.190039974687</v>
@@ -7678,22 +7678,22 @@
         <v>2037.190039974687</v>
       </c>
       <c r="T44" t="n">
-        <v>1999.743135549588</v>
+        <v>2037.190039974687</v>
       </c>
       <c r="U44" t="n">
-        <v>1999.743135549588</v>
+        <v>1780.260967915949</v>
       </c>
       <c r="V44" t="n">
-        <v>1649.905580886068</v>
+        <v>1719.479995353777</v>
       </c>
       <c r="W44" t="n">
-        <v>1266.145280021237</v>
+        <v>1719.479995353777</v>
       </c>
       <c r="X44" t="n">
-        <v>1266.145280021237</v>
+        <v>1719.479995353777</v>
       </c>
       <c r="Y44" t="n">
-        <v>865.2086069693269</v>
+        <v>1719.479995353777</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>40.74380079949374</v>
       </c>
       <c r="I45" t="n">
-        <v>40.74380079949374</v>
+        <v>50.06787060656199</v>
       </c>
       <c r="J45" t="n">
-        <v>314.9453183656845</v>
+        <v>324.2693881727528</v>
       </c>
       <c r="K45" t="n">
-        <v>771.5993900695282</v>
+        <v>408.1080465570994</v>
       </c>
       <c r="L45" t="n">
-        <v>903.0914417681824</v>
+        <v>546.6751375120862</v>
       </c>
       <c r="M45" t="n">
-        <v>1064.37599563088</v>
+        <v>707.9596913747832</v>
       </c>
       <c r="N45" t="n">
-        <v>1235.764772908032</v>
+        <v>879.3484686519355</v>
       </c>
       <c r="O45" t="n">
         <v>1383.55300354567</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>786.5929444084649</v>
+        <v>549.7431915651778</v>
       </c>
       <c r="C46" t="n">
-        <v>786.5929444084649</v>
+        <v>378.6498191268943</v>
       </c>
       <c r="D46" t="n">
-        <v>627.0982997313749</v>
+        <v>378.6498191268943</v>
       </c>
       <c r="E46" t="n">
-        <v>609.130441990016</v>
+        <v>217.7390039952137</v>
       </c>
       <c r="F46" t="n">
-        <v>444.4993161006073</v>
+        <v>217.7390039952137</v>
       </c>
       <c r="G46" t="n">
-        <v>277.9858043380233</v>
+        <v>51.2254922326297</v>
       </c>
       <c r="H46" t="n">
-        <v>134.9298761163102</v>
+        <v>40.74380079949374</v>
       </c>
       <c r="I46" t="n">
         <v>40.74380079949374</v>
       </c>
       <c r="J46" t="n">
-        <v>40.88561631250251</v>
+        <v>105.8869799438389</v>
       </c>
       <c r="K46" t="n">
-        <v>279.3462439018024</v>
+        <v>344.3476075331388</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6170793951596</v>
+        <v>711.6184430264959</v>
       </c>
       <c r="M46" t="n">
-        <v>1049.091684709499</v>
+        <v>1114.093048340835</v>
       </c>
       <c r="N46" t="n">
-        <v>1440.449122163393</v>
+        <v>1505.45048579473</v>
       </c>
       <c r="O46" t="n">
-        <v>1802.091598400124</v>
+        <v>1867.09296203146</v>
       </c>
       <c r="P46" t="n">
-        <v>2037.190039974687</v>
+        <v>1911.186317678005</v>
       </c>
       <c r="Q46" t="n">
         <v>2037.190039974687</v>
@@ -7842,16 +7842,16 @@
         <v>1528.742169651142</v>
       </c>
       <c r="V46" t="n">
-        <v>1528.742169651142</v>
+        <v>1254.856424590664</v>
       </c>
       <c r="W46" t="n">
-        <v>1249.672505160017</v>
+        <v>975.7867600995387</v>
       </c>
       <c r="X46" t="n">
-        <v>1011.3286430197</v>
+        <v>737.4428979592221</v>
       </c>
       <c r="Y46" t="n">
-        <v>786.5929444084649</v>
+        <v>737.4428979592221</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>82.34125626042834</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7990,13 +7990,13 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O2" t="n">
-        <v>102.2074405529035</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8066,19 +8066,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>273.9673852220582</v>
       </c>
       <c r="N3" t="n">
-        <v>232.8219622827125</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8142,7 +8142,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>317.1506174091142</v>
+        <v>317.1506174091145</v>
       </c>
       <c r="M4" t="n">
         <v>348.4508580952379</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>82.34125626042834</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>479.289169423434</v>
@@ -8224,7 +8224,7 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>235.7076676518025</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8233,7 +8233,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,10 +8294,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.9785625348323</v>
+        <v>205.5962513072849</v>
       </c>
       <c r="L6" t="n">
         <v>446.2673035610659</v>
@@ -8306,19 +8306,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>432.1405100734406</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K7" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
         <v>317.1506174091142</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>278.8691500349403</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>467.3013218300598</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>400.6454545179966</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>239.7383945110979</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>319.2554272036796</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>117.4572859798533</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>367.1629732448781</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>360.016468945552</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>7.14650429932648</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8850,7 +8850,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
@@ -8859,13 +8859,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>292.3068070269972</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>12.08760343085421</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>391.5600799265274</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>55.97379886921379</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>403.6176961559256</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.6119964741297</v>
       </c>
       <c r="L15" t="n">
-        <v>376.4772557526069</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>236.8154184767489</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>352.6218424311253</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>149.8530539769295</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
@@ -9096,7 +9096,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>83.94297512223548</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
@@ -9105,7 +9105,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2729675850051905</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>117.4572859798532</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>117.4572859798533</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>367.1629732448781</v>
       </c>
       <c r="L18" t="n">
-        <v>376.4772557526069</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>296.2880675219462</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>360.0164689455519</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
@@ -9333,16 +9333,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>276.877405352557</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>66.81212458804862</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2729675850051905</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>117.4572859798535</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>117.4572859798549</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>424.6119964741299</v>
+        <v>367.1629732448776</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>281.9831029314968</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>4.974126625799428</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,13 +9561,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>149.8530539769313</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>289.940080167406</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>455.0628238236122</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>411.6403855312113</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>118.4362877751438</v>
+        <v>240.6240425459453</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>253.1667525736755</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>439.9799996496918</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>423.5192128426368</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>367.1629732448775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>4.974126625799428</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>455.0628238236122</v>
       </c>
       <c r="L26" t="n">
-        <v>411.6403855312113</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>197.9746537084298</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>375.5244578903263</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>200.0000804904671</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>451.0471460907767</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.8865631203555</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>296.7085362852713</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>455.0628238236122</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>243.916263130283</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>240.6240425459453</v>
       </c>
       <c r="Q29" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.2487129778067</v>
+        <v>367.1629732448775</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>423.5192128426368</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>460.8980392455607</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>4.974126625799428</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,16 +10351,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>455.0628238236122</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>328.278532082529</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>240.6240425459453</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>60.78512157802061</v>
+        <v>367.1629732448775</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>399.6802768431281</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>4.974126625799428</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>348.1376416341265</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>99.39623716161438</v>
+        <v>319.2554272036792</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>7.146504299325812</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>90.45808934403212</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>336.1775329460432</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>360.0164689455519</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>149.8530539769292</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>97.00564993708369</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10764,7 +10764,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2729675850051905</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>348.1376416341265</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>317.0204253070422</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>196.8146736227063</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>328.4709040601153</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>75.1467920958101</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>258.9092411190226</v>
+        <v>367.1629732448776</v>
       </c>
       <c r="L39" t="n">
-        <v>376.4772557526069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>397.3952953484758</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>149.8530539769292</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>12.08760343085398</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2729675850051905</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>319.2554272036793</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>391.5600799265274</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>12.05761622939806</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11144,22 +11144,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>376.4772557526069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>40.74011420709638</v>
+        <v>30.98544029883439</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>336.1775329460433</v>
       </c>
       <c r="O42" t="n">
-        <v>360.0164689455519</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>84.1951109149735</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11235,7 +11235,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>205.0220336611756</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>0.2729675850051905</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>391.5600799265274</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>348.1376416341265</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>122.2750190032212</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>403.6176961559254</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.34720610366581</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>376.5812255752496</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>7.146504299325841</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>360.0164689455519</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>205.0220336611756</v>
+        <v>12.08760343085398</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2729675850051905</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>355.4866830114606</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>240.8522377664281</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>403.0146827044156</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>291.1438774287491</v>
       </c>
       <c r="I11" t="n">
-        <v>22.78959870691142</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.86853022954654</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.8652097088535</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3597813381506</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.625368939496</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>93.24421456364831</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>171.8144716711522</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>234.0362521438441</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.2818100656804</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5155366391392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>65.69213982280297</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.1438774287491</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.78959870691141</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.86853022954654</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.8652097088535</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3597813381506</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>199.4899522131725</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>28.94619544573558</v>
+        <v>164.8483766449582</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>93.24421456364831</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.61854545266082</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>26.18174978157154</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>42.913603653145</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H17" t="n">
-        <v>199.4727765498657</v>
+        <v>291.1438774287491</v>
       </c>
       <c r="I17" t="n">
         <v>22.78959870691141</v>
@@ -23788,7 +23788,7 @@
         <v>212.8652097088535</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3597813381506</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8483766449582</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>171.8144716711522</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>234.0362521438441</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>273.28565873661</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>95.43045917084969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>65.69213982280252</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H20" t="n">
-        <v>291.1438774287491</v>
+        <v>1.944805216314649</v>
       </c>
       <c r="I20" t="n">
         <v>22.78959870691141</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>96.86853022954654</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.8652097088535</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3597813381506</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>154.3644941315088</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24141,10 +24141,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8483766449582</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141.625368939496</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>93.24421456364831</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>51.61854545266082</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.07462452505499</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>314.2490529678565</v>
       </c>
       <c r="G23" t="n">
-        <v>403.0146827044156</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>291.1438774287491</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.78959870691141</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>96.86853022954654</v>
       </c>
       <c r="T23" t="n">
-        <v>212.8652097088535</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3597813381506</v>
       </c>
       <c r="V23" t="n">
-        <v>162.9944783273348</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>146.6857165316499</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.625368939496</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>93.24421456364831</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>51.61854545266082</v>
       </c>
       <c r="S25" t="n">
-        <v>171.8144716711522</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>234.0362521438441</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.930374496496</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>18.06072333418038</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>340.0719267758009</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24460,7 +24460,7 @@
         <v>403.0146827044156</v>
       </c>
       <c r="H26" t="n">
-        <v>291.1438774287491</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>234.578840351813</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.8917085432353</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.625368939496</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.03023286497917</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>51.61854545266082</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>403.0146827044156</v>
+        <v>380.0331643667785</v>
       </c>
       <c r="H29" t="n">
         <v>291.1438774287491</v>
       </c>
       <c r="I29" t="n">
-        <v>22.78959870691141</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.25020128348829</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8652097088535</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>151.7708329318455</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.625368939496</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>93.24421456364831</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>51.61854545266082</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>234.0362521438441</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.2772273446161</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>201.200439716295</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>174.9299192601578</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>34.85789408939726</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>146.6857165316499</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.8483766449582</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>141.625368939496</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>51.61854545266082</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>36.02181549794261</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>291.1438774287491</v>
+        <v>115.176007269328</v>
       </c>
       <c r="I35" t="n">
-        <v>22.78959870691141</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.86853022954654</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.8652097088535</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3597813381506</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>70.37909017217969</v>
       </c>
       <c r="D37" t="n">
-        <v>134.1973240161871</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.8483766449582</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.625368939496</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>93.24421456364831</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>51.61854545266082</v>
       </c>
       <c r="S37" t="n">
-        <v>171.8144716711522</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>121.0360524373579</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,10 +25405,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>403.0146827044156</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>291.1438774287491</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>22.78959870691141</v>
@@ -25447,19 +25447,19 @@
         <v>212.8652097088535</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3597813381506</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>29.64409664626368</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.8483766449582</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>141.625368939496</v>
@@ -25599,13 +25599,13 @@
         <v>51.61854545266082</v>
       </c>
       <c r="S40" t="n">
-        <v>171.8144716711522</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>234.0362521438441</v>
       </c>
       <c r="U40" t="n">
-        <v>215.7660237117103</v>
+        <v>164.1760293038085</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>59.99246256282873</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>128.9814324907614</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>403.0146827044156</v>
       </c>
       <c r="H41" t="n">
-        <v>291.1438774287491</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>22.78959870691141</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>96.86853022954654</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.8652097088535</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3597813381506</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>142.4202003835301</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.8483766449582</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>93.24421456364831</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>51.61854545266082</v>
       </c>
       <c r="S43" t="n">
-        <v>171.8144716711522</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>234.0362521438441</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.930374496496</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>264.5021718499875</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>403.0146827044156</v>
@@ -25885,7 +25885,7 @@
         <v>291.1438774287491</v>
       </c>
       <c r="I44" t="n">
-        <v>22.78959870691141</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>96.86853022954654</v>
       </c>
       <c r="T44" t="n">
-        <v>175.7927743280052</v>
+        <v>212.8652097088535</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3597813381506</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>286.1660162803337</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>141.5135278164184</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.2484944206913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>93.24421456364831</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482968.3168506047</v>
+        <v>482968.3168506045</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>518216.4583038918</v>
+        <v>518216.4583038916</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518216.4583038918</v>
+        <v>518216.4583038916</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482968.3168506045</v>
+        <v>482968.3168506046</v>
       </c>
     </row>
     <row r="16">
@@ -26316,37 +26316,37 @@
         <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
-        <v>423494.2218843882</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="D2" t="n">
-        <v>423494.2218843882</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="E2" t="n">
         <v>259683.0264508208</v>
       </c>
       <c r="F2" t="n">
-        <v>259683.0264508208</v>
+        <v>259683.0264508207</v>
       </c>
       <c r="G2" t="n">
-        <v>259683.0264508208</v>
+        <v>259683.0264508207</v>
       </c>
       <c r="H2" t="n">
-        <v>259683.0264508208</v>
+        <v>259683.0264508209</v>
       </c>
       <c r="I2" t="n">
-        <v>276278.3935938751</v>
+        <v>276278.3935938752</v>
       </c>
       <c r="J2" t="n">
         <v>276278.3935938752</v>
       </c>
       <c r="K2" t="n">
-        <v>276278.3935938751</v>
+        <v>276278.3935938752</v>
       </c>
       <c r="L2" t="n">
-        <v>276278.3935938753</v>
+        <v>276278.3935938752</v>
       </c>
       <c r="M2" t="n">
-        <v>259683.0264508207</v>
+        <v>259683.0264508208</v>
       </c>
       <c r="N2" t="n">
         <v>259683.0264508207</v>
@@ -26355,7 +26355,7 @@
         <v>259683.0264508208</v>
       </c>
       <c r="P2" t="n">
-        <v>259683.0264508209</v>
+        <v>259683.0264508207</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16886.71315985667</v>
+        <v>16886.71315985657</v>
       </c>
       <c r="J3" t="n">
         <v>102081.1339049657</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13866.20556546083</v>
+        <v>13866.20556546082</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>279371.4416641046</v>
       </c>
       <c r="D4" t="n">
-        <v>279371.4416641045</v>
+        <v>279371.4416641046</v>
       </c>
       <c r="E4" t="n">
         <v>43946.37173359276</v>
@@ -26435,16 +26435,16 @@
         <v>43946.37173359276</v>
       </c>
       <c r="H4" t="n">
-        <v>43946.37173359276</v>
+        <v>43946.37173359281</v>
       </c>
       <c r="I4" t="n">
-        <v>51149.12029936635</v>
+        <v>51149.12029936634</v>
       </c>
       <c r="J4" t="n">
-        <v>51149.12029936635</v>
+        <v>51149.12029936634</v>
       </c>
       <c r="K4" t="n">
-        <v>51149.12029936635</v>
+        <v>51149.12029936633</v>
       </c>
       <c r="L4" t="n">
         <v>51149.12029936634</v>
@@ -26453,10 +26453,10 @@
         <v>43946.37173359275</v>
       </c>
       <c r="N4" t="n">
-        <v>43946.37173359275</v>
+        <v>43946.37173359276</v>
       </c>
       <c r="O4" t="n">
-        <v>43946.37173359275</v>
+        <v>43946.37173359276</v>
       </c>
       <c r="P4" t="n">
         <v>43946.37173359275</v>
@@ -26487,7 +26487,7 @@
         <v>39784.40758796799</v>
       </c>
       <c r="H5" t="n">
-        <v>39784.40758796799</v>
+        <v>39784.40758796802</v>
       </c>
       <c r="I5" t="n">
         <v>43645.37441691074</v>
@@ -26508,7 +26508,7 @@
         <v>39784.40758796798</v>
       </c>
       <c r="O5" t="n">
-        <v>39784.40758796798</v>
+        <v>39784.40758796799</v>
       </c>
       <c r="P5" t="n">
         <v>39784.40758796798</v>
@@ -26524,46 +26524,46 @@
         <v>-43975.27879676165</v>
       </c>
       <c r="C6" t="n">
-        <v>86773.89121147041</v>
+        <v>86773.89121147036</v>
       </c>
       <c r="D6" t="n">
-        <v>86773.89121147047</v>
+        <v>86773.8912114703</v>
       </c>
       <c r="E6" t="n">
-        <v>-184635.8144755507</v>
+        <v>-185265.8575349106</v>
       </c>
       <c r="F6" t="n">
-        <v>175952.24712926</v>
+        <v>175322.2040699001</v>
       </c>
       <c r="G6" t="n">
-        <v>175952.24712926</v>
+        <v>175322.2040699</v>
       </c>
       <c r="H6" t="n">
-        <v>175952.24712926</v>
+        <v>175322.2040699002</v>
       </c>
       <c r="I6" t="n">
-        <v>164597.1857177414</v>
+        <v>164030.9709935473</v>
       </c>
       <c r="J6" t="n">
-        <v>79402.7649726324</v>
+        <v>78836.55024843807</v>
       </c>
       <c r="K6" t="n">
-        <v>181483.898877598</v>
+        <v>180917.6841534039</v>
       </c>
       <c r="L6" t="n">
-        <v>181483.8988775982</v>
+        <v>180917.6841534039</v>
       </c>
       <c r="M6" t="n">
-        <v>162086.0415637992</v>
+        <v>161455.9985044393</v>
       </c>
       <c r="N6" t="n">
-        <v>175952.24712926</v>
+        <v>175322.2040699001</v>
       </c>
       <c r="O6" t="n">
-        <v>175952.24712926</v>
+        <v>175322.2040699002</v>
       </c>
       <c r="P6" t="n">
-        <v>175952.2471292602</v>
+        <v>175322.2040699001</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>404.5467422180157</v>
+        <v>404.5467422180158</v>
       </c>
       <c r="F3" t="n">
         <v>404.5467422180158</v>
@@ -26807,7 +26807,7 @@
         <v>509.2975099936718</v>
       </c>
       <c r="H4" t="n">
-        <v>509.2975099936719</v>
+        <v>509.2975099936722</v>
       </c>
       <c r="I4" t="n">
         <v>572.8002538907566</v>
@@ -26828,7 +26828,7 @@
         <v>509.2975099936717</v>
       </c>
       <c r="O4" t="n">
-        <v>509.2975099936717</v>
+        <v>509.2975099936718</v>
       </c>
       <c r="P4" t="n">
         <v>509.2975099936717</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>404.5467422180157</v>
+        <v>404.5467422180158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>63.50274389708472</v>
+        <v>63.50274389708437</v>
       </c>
       <c r="J4" t="n">
         <v>390.1527797502168</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>55.64198634637015</v>
+        <v>55.64198634637012</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C2" t="n">
-        <v>15.87056502964566</v>
+        <v>398.1920252993748</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6143965172087746</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.45290123584878</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>18.71587562797265</v>
       </c>
     </row>
     <row r="4">
@@ -27539,22 +27539,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>63.73620979822932</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>243.6202449363103</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>15.87056502964566</v>
       </c>
       <c r="D5" t="n">
-        <v>10.26651085765315</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>393.484018384934</v>
+        <v>222.3589091779369</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27681,7 +27681,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66.48696161223145</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>35.68642953876034</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>131.2787088882957</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>170.5352159497217</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>397.7727346915048</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>10.26651085765315</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>382.8498839752741</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27934,13 +27934,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>108.3608389664263</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>5.348199339182059</v>
       </c>
     </row>
     <row r="10">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2718011381668</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>57.06664624006483</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31758,7 +31758,7 @@
         <v>16.65553496981006</v>
       </c>
       <c r="I11" t="n">
-        <v>62.69864634918615</v>
+        <v>62.69864634918616</v>
       </c>
       <c r="J11" t="n">
         <v>138.0317550244274</v>
@@ -31767,10 +31767,10 @@
         <v>206.8738197403615</v>
       </c>
       <c r="L11" t="n">
-        <v>256.64526642239</v>
+        <v>256.6452664223901</v>
       </c>
       <c r="M11" t="n">
-        <v>285.5673091436749</v>
+        <v>285.567309143675</v>
       </c>
       <c r="N11" t="n">
         <v>290.1880867570496</v>
@@ -31791,7 +31791,7 @@
         <v>37.05973422429361</v>
       </c>
       <c r="T11" t="n">
-        <v>7.119209503756235</v>
+        <v>7.119209503756236</v>
       </c>
       <c r="U11" t="n">
         <v>0.1301054849344371</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8701571436387509</v>
+        <v>0.870157143638751</v>
       </c>
       <c r="H12" t="n">
-        <v>8.403886097774253</v>
+        <v>8.403886097774254</v>
       </c>
       <c r="I12" t="n">
         <v>29.95935779633419</v>
       </c>
       <c r="J12" t="n">
-        <v>82.21076768036112</v>
+        <v>82.21076768036113</v>
       </c>
       <c r="K12" t="n">
         <v>140.5112963041574</v>
@@ -31849,7 +31849,7 @@
         <v>188.9347780519139</v>
       </c>
       <c r="M12" t="n">
-        <v>220.4779745088185</v>
+        <v>220.4779745088186</v>
       </c>
       <c r="N12" t="n">
         <v>226.3133704413785</v>
@@ -31864,7 +31864,7 @@
         <v>111.0747960897465</v>
       </c>
       <c r="R12" t="n">
-        <v>54.02607247960597</v>
+        <v>54.02607247960598</v>
       </c>
       <c r="S12" t="n">
         <v>16.16278729521977</v>
@@ -31873,7 +31873,7 @@
         <v>3.507343925456192</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05724718050254942</v>
+        <v>0.05724718050254943</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7295105187537987</v>
+        <v>0.7295105187537988</v>
       </c>
       <c r="H13" t="n">
-        <v>6.486011703101961</v>
+        <v>6.486011703101962</v>
       </c>
       <c r="I13" t="n">
         <v>21.93837087306879</v>
       </c>
       <c r="J13" t="n">
-        <v>51.57639367589357</v>
+        <v>51.57639367589358</v>
       </c>
       <c r="K13" t="n">
-        <v>84.75585845157769</v>
+        <v>84.75585845157771</v>
       </c>
       <c r="L13" t="n">
-        <v>108.4583183972693</v>
+        <v>108.4583183972694</v>
       </c>
       <c r="M13" t="n">
         <v>114.3540897715614</v>
       </c>
       <c r="N13" t="n">
-        <v>111.6350051107518</v>
+        <v>111.6350051107519</v>
       </c>
       <c r="O13" t="n">
         <v>103.1129958689461</v>
       </c>
       <c r="P13" t="n">
-        <v>88.23098128636849</v>
+        <v>88.2309812863685</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.08655807492037</v>
+        <v>61.08655807492038</v>
       </c>
       <c r="R13" t="n">
         <v>32.80144568869353</v>
@@ -31952,7 +31952,7 @@
         <v>3.116999489220776</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03979148284111634</v>
+        <v>0.03979148284111635</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.017664927120396</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O2" t="n">
-        <v>9.017664927120396</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>216.4031014836407</v>
+      </c>
+      <c r="N3" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N3" t="n">
-        <v>179.6285688889625</v>
-      </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>262.5223235152127</v>
+        <v>262.522323515213</v>
       </c>
       <c r="M4" t="n">
         <v>292.1859155964578</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.017664927120396</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>390.1527797502169</v>
@@ -34944,7 +34944,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226695</v>
       </c>
       <c r="L6" t="n">
         <v>390.1527797502169</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O6" t="n">
-        <v>374.3890310734406</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K7" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
         <v>262.5223235152127</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N8" t="n">
-        <v>374.3890310734405</v>
-      </c>
-      <c r="O8" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="O9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>394.7847565070075</v>
+        <v>383.963590894799</v>
       </c>
       <c r="K11" t="n">
         <v>117.7374300671444</v>
       </c>
       <c r="L11" t="n">
-        <v>161.1598683595452</v>
+        <v>161.1598683595453</v>
       </c>
       <c r="M11" t="n">
-        <v>192.2770846866295</v>
+        <v>192.2770846866296</v>
       </c>
       <c r="N11" t="n">
         <v>197.2757960004303</v>
@@ -35427,13 +35427,13 @@
         <v>180.8266059335564</v>
       </c>
       <c r="P11" t="n">
-        <v>257.6745647668221</v>
+        <v>140.2172787869689</v>
       </c>
       <c r="Q11" t="n">
         <v>500.0291659466532</v>
       </c>
       <c r="R11" t="n">
-        <v>14.84709053543702</v>
+        <v>143.1255421274988</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.41825233037196</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J12" t="n">
-        <v>276.9712298648391</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K12" t="n">
-        <v>84.68551351954201</v>
+        <v>451.8484867644201</v>
       </c>
       <c r="L12" t="n">
         <v>132.8202542410648</v>
@@ -35503,13 +35503,13 @@
         <v>173.1199770476285</v>
       </c>
       <c r="O12" t="n">
-        <v>509.2975099936718</v>
+        <v>149.2810410481198</v>
       </c>
       <c r="P12" t="n">
-        <v>119.0487189445224</v>
+        <v>111.902214645196</v>
       </c>
       <c r="Q12" t="n">
-        <v>464.4530432452852</v>
+        <v>464.4530432452853</v>
       </c>
       <c r="R12" t="n">
         <v>83.8841728458988</v>
@@ -35570,22 +35570,22 @@
         <v>65.8011910548941</v>
       </c>
       <c r="K13" t="n">
-        <v>32.50548889251087</v>
+        <v>240.8693207972726</v>
       </c>
       <c r="L13" t="n">
         <v>370.980641912482</v>
       </c>
       <c r="M13" t="n">
-        <v>406.5400053680192</v>
+        <v>406.5400053680193</v>
       </c>
       <c r="N13" t="n">
-        <v>352.2291666293296</v>
+        <v>395.3105428827218</v>
       </c>
       <c r="O13" t="n">
         <v>365.2954305421523</v>
       </c>
       <c r="P13" t="n">
-        <v>295.9839512354719</v>
+        <v>44.53874307731793</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2764871683657</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>64.70816369111947</v>
+        <v>394.7847565070075</v>
       </c>
       <c r="K14" t="n">
-        <v>509.2975099936718</v>
+        <v>117.7374300671444</v>
       </c>
       <c r="L14" t="n">
         <v>161.1598683595453</v>
@@ -35664,13 +35664,13 @@
         <v>180.8266059335564</v>
       </c>
       <c r="P14" t="n">
-        <v>196.1910776561827</v>
+        <v>140.2172787869689</v>
       </c>
       <c r="Q14" t="n">
-        <v>500.0291659466532</v>
+        <v>489.2080003344449</v>
       </c>
       <c r="R14" t="n">
-        <v>14.84709053543703</v>
+        <v>143.1255421274988</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>9.418252330371967</v>
       </c>
       <c r="J15" t="n">
-        <v>30.84152888036112</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K15" t="n">
-        <v>84.68551351954204</v>
+        <v>509.2975099936718</v>
       </c>
       <c r="L15" t="n">
-        <v>509.2975099936718</v>
+        <v>132.8202542410648</v>
       </c>
       <c r="M15" t="n">
         <v>162.9136907704011</v>
@@ -35743,10 +35743,10 @@
         <v>149.2810410481198</v>
       </c>
       <c r="P15" t="n">
-        <v>348.7176331219449</v>
+        <v>111.902214645196</v>
       </c>
       <c r="Q15" t="n">
-        <v>464.4530432452853</v>
+        <v>407.0040200160332</v>
       </c>
       <c r="R15" t="n">
         <v>83.8841728458988</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1432479929381572</v>
+        <v>65.8011910548941</v>
       </c>
       <c r="K16" t="n">
-        <v>182.3585428694403</v>
+        <v>240.8693207972726</v>
       </c>
       <c r="L16" t="n">
         <v>370.980641912482</v>
@@ -35816,7 +35816,7 @@
         <v>406.5400053680193</v>
       </c>
       <c r="N16" t="n">
-        <v>395.3105428827218</v>
+        <v>143.8653347245679</v>
       </c>
       <c r="O16" t="n">
         <v>365.2954305421523</v>
@@ -35825,7 +35825,7 @@
         <v>295.9839512354719</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.2764871683657</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>161.1598683595453</v>
       </c>
       <c r="M17" t="n">
-        <v>309.7343706664828</v>
+        <v>192.2770846866296</v>
       </c>
       <c r="N17" t="n">
         <v>197.2757960004303</v>
@@ -35901,7 +35901,7 @@
         <v>180.8266059335564</v>
       </c>
       <c r="P17" t="n">
-        <v>140.2172787869689</v>
+        <v>257.6745647668221</v>
       </c>
       <c r="Q17" t="n">
         <v>500.0291659466532</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J18" t="n">
-        <v>30.84152888036112</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K18" t="n">
-        <v>84.68551351954204</v>
+        <v>451.8484867644201</v>
       </c>
       <c r="L18" t="n">
-        <v>509.2975099936718</v>
+        <v>132.8202542410648</v>
       </c>
       <c r="M18" t="n">
-        <v>459.2017582923474</v>
+        <v>162.9136907704011</v>
       </c>
       <c r="N18" t="n">
         <v>173.1199770476285</v>
       </c>
       <c r="O18" t="n">
-        <v>509.2975099936718</v>
+        <v>149.2810410481198</v>
       </c>
       <c r="P18" t="n">
         <v>111.902214645196</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.38217758490781</v>
+        <v>464.4530432452853</v>
       </c>
       <c r="R18" t="n">
         <v>83.8841728458988</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1432479929381572</v>
+        <v>65.8011910548941</v>
       </c>
       <c r="K19" t="n">
         <v>240.8693207972726</v>
@@ -36053,16 +36053,16 @@
         <v>406.5400053680193</v>
       </c>
       <c r="N19" t="n">
-        <v>336.7997649548895</v>
+        <v>395.3105428827218</v>
       </c>
       <c r="O19" t="n">
-        <v>365.2954305421523</v>
+        <v>113.8502223839984</v>
       </c>
       <c r="P19" t="n">
         <v>295.9839512354719</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.2764871683657</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,13 +36138,13 @@
         <v>180.8266059335564</v>
       </c>
       <c r="P20" t="n">
-        <v>257.6745647668224</v>
+        <v>140.2172787869689</v>
       </c>
       <c r="Q20" t="n">
         <v>500.0291659466532</v>
       </c>
       <c r="R20" t="n">
-        <v>14.84709053543703</v>
+        <v>132.3043765152919</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J21" t="n">
-        <v>30.84152888036112</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K21" t="n">
-        <v>509.2975099936719</v>
+        <v>451.8484867644196</v>
       </c>
       <c r="L21" t="n">
         <v>132.8202542410648</v>
@@ -36217,13 +36217,13 @@
         <v>149.2810410481198</v>
       </c>
       <c r="P21" t="n">
-        <v>393.8853175766928</v>
+        <v>111.902214645196</v>
       </c>
       <c r="Q21" t="n">
         <v>464.4530432452853</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.8841728458988</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0.1432479929381572</v>
       </c>
       <c r="K22" t="n">
-        <v>240.8693207972726</v>
+        <v>182.3585428694421</v>
       </c>
       <c r="L22" t="n">
         <v>370.980641912482</v>
       </c>
       <c r="M22" t="n">
-        <v>348.0292274401874</v>
+        <v>406.5400053680193</v>
       </c>
       <c r="N22" t="n">
         <v>395.3105428827218</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>64.70816369111947</v>
+        <v>394.7847565070075</v>
       </c>
       <c r="K23" t="n">
-        <v>572.8002538907566</v>
+        <v>117.7374300671444</v>
       </c>
       <c r="L23" t="n">
-        <v>572.8002538907566</v>
+        <v>161.1598683595453</v>
       </c>
       <c r="M23" t="n">
         <v>192.2770846866296</v>
@@ -36375,10 +36375,10 @@
         <v>180.8266059335564</v>
       </c>
       <c r="P23" t="n">
-        <v>258.6535665621127</v>
+        <v>380.8413213329142</v>
       </c>
       <c r="Q23" t="n">
-        <v>85.59030417851929</v>
+        <v>500.0291659466532</v>
       </c>
       <c r="R23" t="n">
         <v>143.1255421274988</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J24" t="n">
-        <v>30.84152888036112</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K24" t="n">
-        <v>337.8522660932176</v>
+        <v>84.68551351954204</v>
       </c>
       <c r="L24" t="n">
-        <v>572.8002538907566</v>
+        <v>132.8202542410648</v>
       </c>
       <c r="M24" t="n">
         <v>162.9136907704011</v>
@@ -36451,16 +36451,16 @@
         <v>173.1199770476285</v>
       </c>
       <c r="O24" t="n">
-        <v>572.8002538907566</v>
+        <v>149.2810410481198</v>
       </c>
       <c r="P24" t="n">
-        <v>111.902214645196</v>
+        <v>479.0651878900736</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.38217758490781</v>
+        <v>464.4530432452853</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.8841728458988</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>64.70816369111947</v>
+        <v>394.7847565070075</v>
       </c>
       <c r="K26" t="n">
-        <v>117.7374300671444</v>
+        <v>572.8002538907566</v>
       </c>
       <c r="L26" t="n">
-        <v>572.8002538907566</v>
+        <v>161.1598683595453</v>
       </c>
       <c r="M26" t="n">
-        <v>390.2517383950594</v>
+        <v>192.2770846866296</v>
       </c>
       <c r="N26" t="n">
-        <v>572.8002538907566</v>
+        <v>197.2757960004303</v>
       </c>
       <c r="O26" t="n">
         <v>180.8266059335564</v>
@@ -36615,7 +36615,7 @@
         <v>140.2172787869689</v>
       </c>
       <c r="Q26" t="n">
-        <v>85.59030417851929</v>
+        <v>285.5903846689864</v>
       </c>
       <c r="R26" t="n">
         <v>143.1255421274988</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J27" t="n">
-        <v>30.84152888036112</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K27" t="n">
-        <v>84.68551351954204</v>
+        <v>535.7326596103187</v>
       </c>
       <c r="L27" t="n">
         <v>132.8202542410648</v>
       </c>
       <c r="M27" t="n">
-        <v>572.8002538907566</v>
+        <v>162.9136907704011</v>
       </c>
       <c r="N27" t="n">
         <v>173.1199770476285</v>
@@ -36691,7 +36691,7 @@
         <v>149.2810410481198</v>
       </c>
       <c r="P27" t="n">
-        <v>408.6107509304673</v>
+        <v>111.902214645196</v>
       </c>
       <c r="Q27" t="n">
         <v>464.4530432452853</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>64.70816369111947</v>
+        <v>394.7847565070075</v>
       </c>
       <c r="K29" t="n">
-        <v>572.8002538907566</v>
+        <v>117.7374300671444</v>
       </c>
       <c r="L29" t="n">
-        <v>405.0761314898283</v>
+        <v>161.1598683595453</v>
       </c>
       <c r="M29" t="n">
         <v>192.2770846866296</v>
@@ -36849,13 +36849,13 @@
         <v>180.8266059335564</v>
       </c>
       <c r="P29" t="n">
-        <v>140.2172787869689</v>
+        <v>380.8413213329142</v>
       </c>
       <c r="Q29" t="n">
         <v>500.0291659466532</v>
       </c>
       <c r="R29" t="n">
-        <v>14.84709053543703</v>
+        <v>143.1255421274988</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J30" t="n">
-        <v>30.84152888036112</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K30" t="n">
         <v>84.68551351954204</v>
       </c>
       <c r="L30" t="n">
-        <v>365.0689672188715</v>
+        <v>499.9832274859424</v>
       </c>
       <c r="M30" t="n">
         <v>162.9136907704011</v>
@@ -36925,16 +36925,16 @@
         <v>173.1199770476285</v>
       </c>
       <c r="O30" t="n">
-        <v>572.8002538907566</v>
+        <v>149.2810410481198</v>
       </c>
       <c r="P30" t="n">
-        <v>572.8002538907566</v>
+        <v>111.902214645196</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.38217758490781</v>
+        <v>464.4530432452853</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.8841728458988</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>394.7847565070075</v>
       </c>
       <c r="K32" t="n">
-        <v>117.7374300671444</v>
+        <v>572.8002538907566</v>
       </c>
       <c r="L32" t="n">
-        <v>161.1598683595453</v>
+        <v>489.4384004420742</v>
       </c>
       <c r="M32" t="n">
         <v>192.2770846866296</v>
       </c>
       <c r="N32" t="n">
-        <v>437.8998385463756</v>
+        <v>197.2757960004303</v>
       </c>
       <c r="O32" t="n">
         <v>180.8266059335564</v>
@@ -37089,10 +37089,10 @@
         <v>140.2172787869689</v>
       </c>
       <c r="Q32" t="n">
-        <v>500.0291659466532</v>
+        <v>85.59030417851929</v>
       </c>
       <c r="R32" t="n">
-        <v>143.1255421274988</v>
+        <v>14.84709053543703</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J33" t="n">
         <v>276.9712298648392</v>
       </c>
       <c r="K33" t="n">
-        <v>145.4706350975626</v>
+        <v>451.8484867644195</v>
       </c>
       <c r="L33" t="n">
         <v>132.8202542410648</v>
@@ -37159,7 +37159,7 @@
         <v>162.9136907704011</v>
       </c>
       <c r="N33" t="n">
-        <v>572.8002538907566</v>
+        <v>173.1199770476285</v>
       </c>
       <c r="O33" t="n">
         <v>149.2810410481198</v>
@@ -37171,7 +37171,7 @@
         <v>464.4530432452853</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.8841728458988</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>117.7374300671444</v>
       </c>
       <c r="L35" t="n">
-        <v>509.2975099936717</v>
+        <v>161.1598683595453</v>
       </c>
       <c r="M35" t="n">
         <v>192.2770846866296</v>
@@ -37323,13 +37323,13 @@
         <v>180.8266059335564</v>
       </c>
       <c r="P35" t="n">
-        <v>239.6135159485833</v>
+        <v>459.4727059906481</v>
       </c>
       <c r="Q35" t="n">
         <v>500.0291659466532</v>
       </c>
       <c r="R35" t="n">
-        <v>14.84709053543703</v>
+        <v>143.1255421274988</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J36" t="n">
         <v>276.9712298648392</v>
       </c>
       <c r="K36" t="n">
-        <v>84.68551351954204</v>
+        <v>91.83201781886785</v>
       </c>
       <c r="L36" t="n">
         <v>132.8202542410648</v>
       </c>
       <c r="M36" t="n">
-        <v>253.3717801144332</v>
+        <v>162.9136907704011</v>
       </c>
       <c r="N36" t="n">
-        <v>509.2975099936717</v>
+        <v>173.1199770476285</v>
       </c>
       <c r="O36" t="n">
         <v>509.2975099936717</v>
@@ -37405,7 +37405,7 @@
         <v>111.902214645196</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.38217758490781</v>
+        <v>464.4530432452853</v>
       </c>
       <c r="R36" t="n">
         <v>83.8841728458988</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1432479929381572</v>
+        <v>65.8011910548941</v>
       </c>
       <c r="K37" t="n">
-        <v>182.3585428694401</v>
+        <v>240.8693207972726</v>
       </c>
       <c r="L37" t="n">
         <v>370.980641912482</v>
       </c>
       <c r="M37" t="n">
-        <v>406.5400053680193</v>
+        <v>155.094797209865</v>
       </c>
       <c r="N37" t="n">
         <v>395.3105428827218</v>
@@ -37484,7 +37484,7 @@
         <v>295.9839512354719</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.2764871683657</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>64.70816369111947</v>
+        <v>394.7847565070075</v>
       </c>
       <c r="K38" t="n">
         <v>117.7374300671444</v>
       </c>
       <c r="L38" t="n">
+        <v>161.1598683595453</v>
+      </c>
+      <c r="M38" t="n">
+        <v>192.2770846866296</v>
+      </c>
+      <c r="N38" t="n">
+        <v>197.2757960004303</v>
+      </c>
+      <c r="O38" t="n">
         <v>509.2975099936717</v>
       </c>
-      <c r="M38" t="n">
-        <v>509.2975099936717</v>
-      </c>
-      <c r="N38" t="n">
-        <v>394.0904696231366</v>
-      </c>
-      <c r="O38" t="n">
-        <v>180.8266059335564</v>
-      </c>
       <c r="P38" t="n">
-        <v>140.2172787869689</v>
+        <v>215.364070882779</v>
       </c>
       <c r="Q38" t="n">
         <v>85.59030417851929</v>
       </c>
       <c r="R38" t="n">
-        <v>14.84709053543703</v>
+        <v>143.1255421274988</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J39" t="n">
-        <v>30.84152888036112</v>
+        <v>276.9712298648392</v>
       </c>
       <c r="K39" t="n">
-        <v>343.5947546385646</v>
+        <v>451.8484867644196</v>
       </c>
       <c r="L39" t="n">
-        <v>509.2975099936717</v>
+        <v>132.8202542410648</v>
       </c>
       <c r="M39" t="n">
         <v>162.9136907704011</v>
@@ -37639,10 +37639,10 @@
         <v>149.2810410481198</v>
       </c>
       <c r="P39" t="n">
-        <v>509.2975099936717</v>
+        <v>111.902214645196</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.38217758490781</v>
+        <v>464.4530432452853</v>
       </c>
       <c r="R39" t="n">
         <v>83.8841728458988</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1432479929381572</v>
+        <v>65.8011910548941</v>
       </c>
       <c r="K40" t="n">
-        <v>182.3585428694401</v>
+        <v>240.8693207972726</v>
       </c>
       <c r="L40" t="n">
         <v>370.980641912482</v>
@@ -37718,10 +37718,10 @@
         <v>365.2954305421523</v>
       </c>
       <c r="P40" t="n">
-        <v>295.9839512354719</v>
+        <v>44.5387430773177</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.2764871683657</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>383.9635908947988</v>
+        <v>394.7847565070075</v>
       </c>
       <c r="K41" t="n">
-        <v>117.7374300671444</v>
+        <v>509.2975099936718</v>
       </c>
       <c r="L41" t="n">
-        <v>161.1598683595453</v>
+        <v>173.2174845889433</v>
       </c>
       <c r="M41" t="n">
         <v>192.2770846866296</v>
@@ -37800,7 +37800,7 @@
         <v>140.2172787869689</v>
       </c>
       <c r="Q41" t="n">
-        <v>500.0291659466532</v>
+        <v>85.59030417851929</v>
       </c>
       <c r="R41" t="n">
         <v>143.1255421274988</v>
@@ -37864,22 +37864,22 @@
         <v>84.68551351954204</v>
       </c>
       <c r="L42" t="n">
-        <v>509.2975099936717</v>
+        <v>132.8202542410648</v>
       </c>
       <c r="M42" t="n">
-        <v>203.6538049774975</v>
+        <v>193.8991310692355</v>
       </c>
       <c r="N42" t="n">
-        <v>173.1199770476285</v>
+        <v>509.2975099936718</v>
       </c>
       <c r="O42" t="n">
-        <v>509.2975099936717</v>
+        <v>149.2810410481198</v>
       </c>
       <c r="P42" t="n">
         <v>111.902214645196</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.38217758490781</v>
+        <v>464.4530432452853</v>
       </c>
       <c r="R42" t="n">
         <v>83.8841728458988</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1432479929381572</v>
+        <v>65.8011910548941</v>
       </c>
       <c r="K43" t="n">
-        <v>240.8693207972726</v>
+        <v>116.7005998074844</v>
       </c>
       <c r="L43" t="n">
         <v>370.980641912482</v>
@@ -37955,7 +37955,7 @@
         <v>365.2954305421523</v>
       </c>
       <c r="P43" t="n">
-        <v>237.4731733076393</v>
+        <v>295.9839512354719</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>64.70816369111947</v>
+        <v>394.7847565070075</v>
       </c>
       <c r="K44" t="n">
-        <v>509.2975099936717</v>
+        <v>117.7374300671444</v>
       </c>
       <c r="L44" t="n">
-        <v>509.2975099936717</v>
+        <v>161.1598683595453</v>
       </c>
       <c r="M44" t="n">
-        <v>314.5521036898508</v>
+        <v>192.2770846866296</v>
       </c>
       <c r="N44" t="n">
         <v>197.2757960004303</v>
@@ -38037,10 +38037,10 @@
         <v>140.2172787869689</v>
       </c>
       <c r="Q44" t="n">
-        <v>85.59030417851929</v>
+        <v>489.2080003344446</v>
       </c>
       <c r="R44" t="n">
-        <v>14.84709053543703</v>
+        <v>143.1255421274988</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>9.418252330371967</v>
       </c>
       <c r="J45" t="n">
         <v>276.9712298648392</v>
       </c>
       <c r="K45" t="n">
-        <v>461.2667390947917</v>
+        <v>84.68551351954204</v>
       </c>
       <c r="L45" t="n">
-        <v>132.8202542410648</v>
+        <v>139.9667585403907</v>
       </c>
       <c r="M45" t="n">
         <v>162.9136907704011</v>
@@ -38110,7 +38110,7 @@
         <v>173.1199770476285</v>
       </c>
       <c r="O45" t="n">
-        <v>149.2810410481198</v>
+        <v>509.2975099936717</v>
       </c>
       <c r="P45" t="n">
         <v>111.902214645196</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1432479929381572</v>
+        <v>65.8011910548941</v>
       </c>
       <c r="K46" t="n">
         <v>240.8693207972726</v>
@@ -38192,10 +38192,10 @@
         <v>365.2954305421523</v>
       </c>
       <c r="P46" t="n">
-        <v>237.4731733076393</v>
+        <v>44.5387430773177</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.2764871683657</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
